--- a/data/nzd0151/nzd0151.xlsx
+++ b/data/nzd0151/nzd0151.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O575"/>
+  <dimension ref="A1:O583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26629,6 +26629,402 @@
         </is>
       </c>
     </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr"/>
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="inlineStr"/>
+      <c r="E576" t="n">
+        <v>373.38</v>
+      </c>
+      <c r="F576" t="n">
+        <v>376.84</v>
+      </c>
+      <c r="G576" t="n">
+        <v>375.58</v>
+      </c>
+      <c r="H576" t="n">
+        <v>370.32</v>
+      </c>
+      <c r="I576" t="n">
+        <v>369.65</v>
+      </c>
+      <c r="J576" t="n">
+        <v>369.51</v>
+      </c>
+      <c r="K576" t="n">
+        <v>370.39</v>
+      </c>
+      <c r="L576" t="n">
+        <v>363.56</v>
+      </c>
+      <c r="M576" t="n">
+        <v>362.61</v>
+      </c>
+      <c r="N576" t="n">
+        <v>363</v>
+      </c>
+      <c r="O576" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>403.5466666666667</v>
+      </c>
+      <c r="C577" t="n">
+        <v>390.2</v>
+      </c>
+      <c r="D577" t="n">
+        <v>384</v>
+      </c>
+      <c r="E577" t="n">
+        <v>374.6633333333333</v>
+      </c>
+      <c r="F577" t="n">
+        <v>394.4733333333333</v>
+      </c>
+      <c r="G577" t="n">
+        <v>401.6433333333333</v>
+      </c>
+      <c r="H577" t="n">
+        <v>388.8133333333333</v>
+      </c>
+      <c r="I577" t="n">
+        <v>382.5833333333333</v>
+      </c>
+      <c r="J577" t="n">
+        <v>381.1933333333333</v>
+      </c>
+      <c r="K577" t="n">
+        <v>380.4033333333333</v>
+      </c>
+      <c r="L577" t="n">
+        <v>372.2433333333333</v>
+      </c>
+      <c r="M577" t="n">
+        <v>373.9233333333333</v>
+      </c>
+      <c r="N577" t="n">
+        <v>373.39</v>
+      </c>
+      <c r="O577" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>404.2033333333333</v>
+      </c>
+      <c r="C578" t="n">
+        <v>389.92</v>
+      </c>
+      <c r="D578" t="n">
+        <v>374.98</v>
+      </c>
+      <c r="E578" t="n">
+        <v>368.1766666666667</v>
+      </c>
+      <c r="F578" t="n">
+        <v>374.7266666666667</v>
+      </c>
+      <c r="G578" t="n">
+        <v>376.5566666666667</v>
+      </c>
+      <c r="H578" t="n">
+        <v>375.0966666666667</v>
+      </c>
+      <c r="I578" t="n">
+        <v>376.5166666666667</v>
+      </c>
+      <c r="J578" t="n">
+        <v>379.2966666666667</v>
+      </c>
+      <c r="K578" t="n">
+        <v>379.1666666666667</v>
+      </c>
+      <c r="L578" t="n">
+        <v>374.0966666666667</v>
+      </c>
+      <c r="M578" t="n">
+        <v>372.8066666666667</v>
+      </c>
+      <c r="N578" t="n">
+        <v>376.55</v>
+      </c>
+      <c r="O578" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>415.2266666666667</v>
+      </c>
+      <c r="C579" t="n">
+        <v>393.03</v>
+      </c>
+      <c r="D579" t="n">
+        <v>380.54</v>
+      </c>
+      <c r="E579" t="n">
+        <v>374.9433333333333</v>
+      </c>
+      <c r="F579" t="n">
+        <v>385.0133333333333</v>
+      </c>
+      <c r="G579" t="n">
+        <v>391.0833333333333</v>
+      </c>
+      <c r="H579" t="n">
+        <v>393.0633333333333</v>
+      </c>
+      <c r="I579" t="n">
+        <v>397.7833333333333</v>
+      </c>
+      <c r="J579" t="n">
+        <v>396.9833333333333</v>
+      </c>
+      <c r="K579" t="n">
+        <v>398.7933333333333</v>
+      </c>
+      <c r="L579" t="n">
+        <v>394.7233333333333</v>
+      </c>
+      <c r="M579" t="n">
+        <v>391.1033333333333</v>
+      </c>
+      <c r="N579" t="n">
+        <v>396.26</v>
+      </c>
+      <c r="O579" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr"/>
+      <c r="C580" t="inlineStr"/>
+      <c r="D580" t="inlineStr"/>
+      <c r="E580" t="n">
+        <v>363.7766666666667</v>
+      </c>
+      <c r="F580" t="n">
+        <v>373.1566666666667</v>
+      </c>
+      <c r="G580" t="n">
+        <v>380.9566666666667</v>
+      </c>
+      <c r="H580" t="n">
+        <v>381.6366666666667</v>
+      </c>
+      <c r="I580" t="n">
+        <v>383.9566666666667</v>
+      </c>
+      <c r="J580" t="n">
+        <v>385.5366666666667</v>
+      </c>
+      <c r="K580" t="n">
+        <v>389.5566666666667</v>
+      </c>
+      <c r="L580" t="n">
+        <v>383.8466666666667</v>
+      </c>
+      <c r="M580" t="n">
+        <v>380.8566666666667</v>
+      </c>
+      <c r="N580" t="n">
+        <v>383.81</v>
+      </c>
+      <c r="O580" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>376.7133333333333</v>
+      </c>
+      <c r="C581" t="n">
+        <v>362.9</v>
+      </c>
+      <c r="D581" t="n">
+        <v>360.99</v>
+      </c>
+      <c r="E581" t="n">
+        <v>359.9866666666667</v>
+      </c>
+      <c r="F581" t="n">
+        <v>372.2166666666667</v>
+      </c>
+      <c r="G581" t="n">
+        <v>377.4266666666667</v>
+      </c>
+      <c r="H581" t="n">
+        <v>381.4066666666667</v>
+      </c>
+      <c r="I581" t="n">
+        <v>382.3866666666667</v>
+      </c>
+      <c r="J581" t="n">
+        <v>386.2066666666667</v>
+      </c>
+      <c r="K581" t="n">
+        <v>388.1766666666667</v>
+      </c>
+      <c r="L581" t="n">
+        <v>383.2766666666667</v>
+      </c>
+      <c r="M581" t="n">
+        <v>377.6666666666667</v>
+      </c>
+      <c r="N581" t="n">
+        <v>378.96</v>
+      </c>
+      <c r="O581" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>407.6833333333333</v>
+      </c>
+      <c r="C582" t="n">
+        <v>396.84</v>
+      </c>
+      <c r="D582" t="n">
+        <v>385.79</v>
+      </c>
+      <c r="E582" t="n">
+        <v>380.2666666666667</v>
+      </c>
+      <c r="F582" t="n">
+        <v>393.0666666666667</v>
+      </c>
+      <c r="G582" t="n">
+        <v>399.2066666666667</v>
+      </c>
+      <c r="H582" t="n">
+        <v>400.5766666666667</v>
+      </c>
+      <c r="I582" t="n">
+        <v>404.5466666666667</v>
+      </c>
+      <c r="J582" t="n">
+        <v>404.4266666666667</v>
+      </c>
+      <c r="K582" t="n">
+        <v>408.4666666666667</v>
+      </c>
+      <c r="L582" t="n">
+        <v>402.6566666666667</v>
+      </c>
+      <c r="M582" t="n">
+        <v>400.0366666666667</v>
+      </c>
+      <c r="N582" t="n">
+        <v>399.76</v>
+      </c>
+      <c r="O582" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>399.5266666666667</v>
+      </c>
+      <c r="C583" t="n">
+        <v>386.39</v>
+      </c>
+      <c r="D583" t="n">
+        <v>377.5100000000001</v>
+      </c>
+      <c r="E583" t="n">
+        <v>374.3733333333333</v>
+      </c>
+      <c r="F583" t="n">
+        <v>377.6533333333333</v>
+      </c>
+      <c r="G583" t="n">
+        <v>383.8633333333333</v>
+      </c>
+      <c r="H583" t="n">
+        <v>384.6433333333333</v>
+      </c>
+      <c r="I583" t="n">
+        <v>385.7133333333333</v>
+      </c>
+      <c r="J583" t="n">
+        <v>384.9333333333333</v>
+      </c>
+      <c r="K583" t="n">
+        <v>384.2633333333333</v>
+      </c>
+      <c r="L583" t="n">
+        <v>381.1133333333333</v>
+      </c>
+      <c r="M583" t="n">
+        <v>379.7033333333333</v>
+      </c>
+      <c r="N583" t="n">
+        <v>378.56</v>
+      </c>
+      <c r="O583" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26640,7 +27036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B590"/>
+  <dimension ref="A1:B598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32548,6 +32944,86 @@
       </c>
       <c r="B590" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -32716,28 +33192,28 @@
         <v>0.0151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4529448393098338</v>
+        <v>-0.4626668791785284</v>
       </c>
       <c r="J2" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K2" t="n">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03521983533292827</v>
+        <v>0.03744822951012661</v>
       </c>
       <c r="M2" t="n">
-        <v>13.86733985118915</v>
+        <v>13.78857603739048</v>
       </c>
       <c r="N2" t="n">
-        <v>300.4542858102537</v>
+        <v>298.4101316255855</v>
       </c>
       <c r="O2" t="n">
-        <v>17.33361721656082</v>
+        <v>17.27455156076665</v>
       </c>
       <c r="P2" t="n">
-        <v>416.2601652580993</v>
+        <v>416.3556196770068</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -32793,28 +33269,28 @@
         <v>0.0208</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3558116284606039</v>
+        <v>-0.3549407967358984</v>
       </c>
       <c r="J3" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K3" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03133597191991422</v>
+        <v>0.0317781403472186</v>
       </c>
       <c r="M3" t="n">
-        <v>11.37275104900074</v>
+        <v>11.32996115155935</v>
       </c>
       <c r="N3" t="n">
-        <v>207.3296433310419</v>
+        <v>206.2097181749117</v>
       </c>
       <c r="O3" t="n">
-        <v>14.39894591041448</v>
+        <v>14.36000411472475</v>
       </c>
       <c r="P3" t="n">
-        <v>395.2257302487511</v>
+        <v>395.2173139047011</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -32870,28 +33346,28 @@
         <v>0.0258</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3267304586006827</v>
+        <v>-0.3258812711753855</v>
       </c>
       <c r="J4" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K4" t="n">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03663376769469751</v>
+        <v>0.03720259957301453</v>
       </c>
       <c r="M4" t="n">
-        <v>9.520185781097139</v>
+        <v>9.477959248822248</v>
       </c>
       <c r="N4" t="n">
-        <v>146.6736024665399</v>
+        <v>145.6261621271282</v>
       </c>
       <c r="O4" t="n">
-        <v>12.11088776541752</v>
+        <v>12.0675665370914</v>
       </c>
       <c r="P4" t="n">
-        <v>385.2552346687734</v>
+        <v>385.2469195087683</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -32947,28 +33423,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2014209116531287</v>
+        <v>-0.2036797831507131</v>
       </c>
       <c r="J5" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K5" t="n">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0178522355714924</v>
+        <v>0.01876884297904613</v>
       </c>
       <c r="M5" t="n">
-        <v>8.571947617694889</v>
+        <v>8.515445249701857</v>
       </c>
       <c r="N5" t="n">
-        <v>117.578052159449</v>
+        <v>116.2331828830964</v>
       </c>
       <c r="O5" t="n">
-        <v>10.84334137429275</v>
+        <v>10.78114942309475</v>
       </c>
       <c r="P5" t="n">
-        <v>376.9950096432989</v>
+        <v>377.0174323831004</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -33024,28 +33500,28 @@
         <v>0.0304</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2131685316160748</v>
+        <v>-0.2169599101260755</v>
       </c>
       <c r="J6" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K6" t="n">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01857902174957504</v>
+        <v>0.01971503795433571</v>
       </c>
       <c r="M6" t="n">
-        <v>8.874680822585137</v>
+        <v>8.857043874938702</v>
       </c>
       <c r="N6" t="n">
-        <v>126.2124476195497</v>
+        <v>125.2333703612034</v>
       </c>
       <c r="O6" t="n">
-        <v>11.23443134384423</v>
+        <v>11.19077166066771</v>
       </c>
       <c r="P6" t="n">
-        <v>387.4404984668412</v>
+        <v>387.478233238057</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -33101,28 +33577,28 @@
         <v>0.0302</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2377752383960283</v>
+        <v>-0.2392619824280696</v>
       </c>
       <c r="J7" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K7" t="n">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02244914907205109</v>
+        <v>0.02320862513863209</v>
       </c>
       <c r="M7" t="n">
-        <v>8.721517286374038</v>
+        <v>8.722533141189139</v>
       </c>
       <c r="N7" t="n">
-        <v>126.8248037517663</v>
+        <v>126.2577879502113</v>
       </c>
       <c r="O7" t="n">
-        <v>11.26165191043332</v>
+        <v>11.2364490810136</v>
       </c>
       <c r="P7" t="n">
-        <v>392.2787518215712</v>
+        <v>392.2937065325007</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -33178,28 +33654,28 @@
         <v>0.0303</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.240279356999798</v>
+        <v>-0.2475677180061478</v>
       </c>
       <c r="J8" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K8" t="n">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02252705176363046</v>
+        <v>0.02439970811167991</v>
       </c>
       <c r="M8" t="n">
-        <v>8.737612169632946</v>
+        <v>8.724161628087453</v>
       </c>
       <c r="N8" t="n">
-        <v>129.4859419440168</v>
+        <v>128.7664269017169</v>
       </c>
       <c r="O8" t="n">
-        <v>11.37918898445829</v>
+        <v>11.34752955059897</v>
       </c>
       <c r="P8" t="n">
-        <v>392.8106203349849</v>
+        <v>392.8839333129073</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -33255,28 +33731,28 @@
         <v>0.0303</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08901596515314146</v>
+        <v>-0.103897533566487</v>
       </c>
       <c r="J9" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K9" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003616531364519671</v>
+        <v>0.004993552330698425</v>
       </c>
       <c r="M9" t="n">
-        <v>8.374093053876134</v>
+        <v>8.405812834673041</v>
       </c>
       <c r="N9" t="n">
-        <v>113.8803617023462</v>
+        <v>114.1312313670759</v>
       </c>
       <c r="O9" t="n">
-        <v>10.67147420473602</v>
+        <v>10.68322195627686</v>
       </c>
       <c r="P9" t="n">
-        <v>392.2889217693868</v>
+        <v>392.436913071828</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -33332,28 +33808,28 @@
         <v>0.0302</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04121011322373254</v>
+        <v>-0.06115276436581991</v>
       </c>
       <c r="J10" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K10" t="n">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00096130314143128</v>
+        <v>0.002132154099156569</v>
       </c>
       <c r="M10" t="n">
-        <v>7.622733536593612</v>
+        <v>7.663868331229686</v>
       </c>
       <c r="N10" t="n">
-        <v>92.74577336467058</v>
+        <v>93.50337733837723</v>
       </c>
       <c r="O10" t="n">
-        <v>9.630460703656423</v>
+        <v>9.669714439339831</v>
       </c>
       <c r="P10" t="n">
-        <v>393.3594470085744</v>
+        <v>393.5574590874604</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -33409,28 +33885,28 @@
         <v>0.0347</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06109471883590822</v>
+        <v>0.03897672097033574</v>
       </c>
       <c r="J11" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K11" t="n">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001675053297116924</v>
+        <v>0.0006894416971611195</v>
       </c>
       <c r="M11" t="n">
-        <v>8.404356203647284</v>
+        <v>8.453191095488727</v>
       </c>
       <c r="N11" t="n">
-        <v>117.0640592375443</v>
+        <v>117.9327830940692</v>
       </c>
       <c r="O11" t="n">
-        <v>10.81961456048894</v>
+        <v>10.85968614160046</v>
       </c>
       <c r="P11" t="n">
-        <v>392.5936861459284</v>
+        <v>392.8119976022547</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -33486,28 +33962,28 @@
         <v>0.0349</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.09136435675850803</v>
+        <v>-0.1165614383420787</v>
       </c>
       <c r="J12" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K12" t="n">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003482406021931395</v>
+        <v>0.00571444802768728</v>
       </c>
       <c r="M12" t="n">
-        <v>8.869112243749676</v>
+        <v>8.933027039213753</v>
       </c>
       <c r="N12" t="n">
-        <v>127.1888007435809</v>
+        <v>128.2880705007347</v>
       </c>
       <c r="O12" t="n">
-        <v>11.27780123710207</v>
+        <v>11.32643238185505</v>
       </c>
       <c r="P12" t="n">
-        <v>391.7834084872795</v>
+        <v>392.0274318895759</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -33563,28 +34039,28 @@
         <v>0.0307</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.121228206069064</v>
+        <v>-0.1494256868831836</v>
       </c>
       <c r="J13" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K13" t="n">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007033409338976115</v>
+        <v>0.01072605847232766</v>
       </c>
       <c r="M13" t="n">
-        <v>8.344877389762823</v>
+        <v>8.410568134934529</v>
       </c>
       <c r="N13" t="n">
-        <v>109.2006316487685</v>
+        <v>110.4584206305689</v>
       </c>
       <c r="O13" t="n">
-        <v>10.44991060482187</v>
+        <v>10.50992010581283</v>
       </c>
       <c r="P13" t="n">
-        <v>391.2042451303157</v>
+        <v>391.4807146646829</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -33640,28 +34116,28 @@
         <v>0.0257</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1644110338501277</v>
+        <v>-0.2013853565006757</v>
       </c>
       <c r="J14" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K14" t="n">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="L14" t="n">
-        <v>0.008967510257034239</v>
+        <v>0.01352863132726423</v>
       </c>
       <c r="M14" t="n">
-        <v>9.843524716733654</v>
+        <v>9.919900844804246</v>
       </c>
       <c r="N14" t="n">
-        <v>154.2421629725249</v>
+        <v>155.6335106786574</v>
       </c>
       <c r="O14" t="n">
-        <v>12.41942683752052</v>
+        <v>12.47531605526118</v>
       </c>
       <c r="P14" t="n">
-        <v>396.0346712301444</v>
+        <v>396.4034687232249</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -33698,7 +34174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O575"/>
+  <dimension ref="A1:O583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71665,6 +72141,598 @@
         </is>
       </c>
     </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr"/>
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="inlineStr"/>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>-36.6820700158971,174.74997770272233</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>-36.68277554151758,174.75018595668732</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>-36.68346135201841,174.7504078139409</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>-36.68415585108877,174.7506385370302</t>
+        </is>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>-36.68484025675121,174.75091931302848</t>
+        </is>
+      </c>
+      <c r="J576" t="inlineStr">
+        <is>
+          <t>-36.68552307425898,174.75120568465607</t>
+        </is>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>-36.68619934936478,174.75150108597657</t>
+        </is>
+      </c>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>-36.686881101723124,174.75178654908171</t>
+        </is>
+      </c>
+      <c r="M576" t="inlineStr">
+        <is>
+          <t>-36.68753638118789,174.75215886364023</t>
+        </is>
+      </c>
+      <c r="N576" t="inlineStr">
+        <is>
+          <t>-36.68818678021799,174.75254493217344</t>
+        </is>
+      </c>
+      <c r="O576" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>-36.67995292397323,174.74912431449619</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>-36.680652727131594,174.7494494252881</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>-36.681355634683094,174.7497380933931</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>-36.68206657521743,174.74999141203756</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>-36.6827376311673,174.75037756444746</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>-36.68338977608194,174.75068557646625</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>-36.6841006464157,174.750833786442</t>
+        </is>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>-36.68480164910909,174.7510558620491</t>
+        </is>
+      </c>
+      <c r="J577" t="inlineStr">
+        <is>
+          <t>-36.685488197823105,174.751329037275</t>
+        </is>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>-36.68616594649685,174.75160517450018</t>
+        </is>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>-36.68684807173841,174.75187463528366</t>
+        </is>
+      </c>
+      <c r="M577" t="inlineStr">
+        <is>
+          <t>-36.68749196765001,174.75227281714268</t>
+        </is>
+      </c>
+      <c r="N577" t="inlineStr">
+        <is>
+          <t>-36.688145991245854,174.75264958613246</t>
+        </is>
+      </c>
+      <c r="O577" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>-36.67994993469861,174.74913065565312</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>-36.68065386214637,174.74944662718048</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>-36.68138756925677,174.74964528194172</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>-36.6820839662733,174.74992211766744</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>-36.68278008500608,174.75016299271928</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>-36.68345866987751,174.75041822249648</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>-36.68414159223333,174.75068896827779</t>
+        </is>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>-36.68481975889845,174.7509918107221</t>
+        </is>
+      </c>
+      <c r="J578" t="inlineStr">
+        <is>
+          <t>-36.68549385965529,174.75130901227857</t>
+        </is>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>-36.68617007182257,174.7515923193647</t>
+        </is>
+      </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>-36.68684102195228,174.75189343601386</t>
+        </is>
+      </c>
+      <c r="M578" t="inlineStr">
+        <is>
+          <t>-36.68749635143056,174.75226156952837</t>
+        </is>
+      </c>
+      <c r="N578" t="inlineStr">
+        <is>
+          <t>-36.68813358572745,174.752681415418</t>
+        </is>
+      </c>
+      <c r="O578" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>-36.67989975428882,174.7492371033247</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>-36.68064125537152,174.74947770615688</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>-36.681367884538986,174.74970249167058</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>-36.682065824523484,174.7499944031607</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>-36.682757969498844,174.75027476998778</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>-36.68341877635889,174.75057303634955</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>-36.684087959644984,174.75087865716515</t>
+        </is>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>-36.68475627498326,174.75121634215958</t>
+        </is>
+      </c>
+      <c r="J579" t="inlineStr">
+        <is>
+          <t>-36.68544106219588,174.75149574789114</t>
+        </is>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>-36.68610460018614,174.75179633816714</t>
+        </is>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>-36.686762561188026,174.75210267843468</t>
+        </is>
+      </c>
+      <c r="M579" t="inlineStr">
+        <is>
+          <t>-36.68742452272905,174.75244586236315</t>
+        </is>
+      </c>
+      <c r="N579" t="inlineStr">
+        <is>
+          <t>-36.688056208082806,174.7528799453133</t>
+        </is>
+      </c>
+      <c r="O579" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr"/>
+      <c r="C580" t="inlineStr"/>
+      <c r="D580" t="inlineStr"/>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>-36.68209576285598,174.7498751142734</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>-36.68278346037092,174.75014593273485</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>-36.68344658650125,174.75046511427323</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>-36.68412206960741,174.75075801647225</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>-36.68479754952573,174.75107036157596</t>
+        </is>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>-36.685475232314474,174.7513748941534</t>
+        </is>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>-36.68613541237275,174.75170032324883</t>
+        </is>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>-36.686803934450715,174.75199234267484</t>
+        </is>
+      </c>
+      <c r="M580" t="inlineStr">
+        <is>
+          <t>-36.6874647489298,174.75234265304704</t>
+        </is>
+      </c>
+      <c r="N580" t="inlineStr">
+        <is>
+          <t>-36.6881050844102,174.75275454215452</t>
+        </is>
+      </c>
+      <c r="O580" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>-36.680075074255626,174.74886519572638</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>-36.680763390772235,174.74917660939792</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>-36.68143709957027,174.74950133142977</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>-36.68210592398875,174.74983462724694</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>-36.68278548128883,174.7501357184759</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>-36.683456280665915,174.7504274942808</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>-36.684122756183605,174.75075558817244</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>-36.68480223618523,174.75105378566042</t>
+        </is>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>-36.68547323226133,174.7513819680066</t>
+        </is>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>-36.68614001584706,174.75168597817662</t>
+        </is>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>-36.68680610264531,174.75198656044196</t>
+        </is>
+      </c>
+      <c r="M581" t="inlineStr">
+        <is>
+          <t>-36.68747727216323,174.75231052182232</t>
+        </is>
+      </c>
+      <c r="N581" t="inlineStr">
+        <is>
+          <t>-36.68812412455122,174.75270569027745</t>
+        </is>
+      </c>
+      <c r="O581" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>-36.67993409305513,174.7491642605577</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>-36.68062581104817,174.74951578038713</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>-36.68134929732584,174.7497565116207</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>-36.68205155238759,174.75005127009766</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>-36.68274065540676,174.75036227929888</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>-36.68339646775865,174.75065960841056</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>-36.684065531383965,174.75095798152756</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>-36.68473608541929,174.751287748707</t>
+        </is>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>-36.68541884259889,174.75157433443485</t>
+        </is>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>-36.68607233126152,174.75189689213943</t>
+        </is>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>-36.6867323838758,174.75218315617246</t>
+        </is>
+      </c>
+      <c r="M582" t="inlineStr">
+        <is>
+          <t>-36.68738945232046,174.75253584306915</t>
+        </is>
+      </c>
+      <c r="N582" t="inlineStr">
+        <is>
+          <t>-36.68804246772668,174.752915199184</t>
+        </is>
+      </c>
+      <c r="O582" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>-36.679971223789366,174.74908549501689</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>-36.680668171434355,174.74941135103066</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>-36.68137861200542,174.74967131442997</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>-36.68206735272181,174.74998831408854</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>-36.68277379291831,174.75019479455437</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>-36.68343860413973,174.75049609125674</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>-36.68411309436051,174.7507897603293</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>-36.68479230563865,174.7510889082984</t>
+        </is>
+      </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>-36.685477033357,174.75136852416588</t>
+        </is>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>-36.68615307013455,174.75164529914585</t>
+        </is>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>-36.6868143316387,174.7519646150054</t>
+        </is>
+      </c>
+      <c r="M583" t="inlineStr">
+        <is>
+          <t>-36.68746927666197,174.75233103611646</t>
+        </is>
+      </c>
+      <c r="N583" t="inlineStr">
+        <is>
+          <t>-36.688125694871246,174.75270166125557</t>
+        </is>
+      </c>
+      <c r="O583" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0151/nzd0151.xlsx
+++ b/data/nzd0151/nzd0151.xlsx
@@ -33037,7 +33037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33128,35 +33128,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -33215,27 +33220,28 @@
       <c r="P2" t="n">
         <v>416.3556196770068</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.7452273375528 -36.68178988531498, 174.75411870463546 -36.67759835244193)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7452273375528</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.68178988531498</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7541187046355</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.67759835244193</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7496730210941</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.67969411887846</v>
       </c>
     </row>
@@ -33292,27 +33298,28 @@
       <c r="P3" t="n">
         <v>395.2173139047011</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.7455499806671 -36.68223438937886, 174.7547520215089 -36.678501624137525)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7455499806671</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.68223438937886</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7547520215089</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.67850162413752</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.750151001088</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.68036800675819</v>
       </c>
     </row>
@@ -33369,27 +33376,28 @@
       <c r="P4" t="n">
         <v>385.2469195087683</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.74578684843877 -36.68271509294474, 174.7552623577399 -36.67945466916763)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7457868484388</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.68271509294474</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7552623577399</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.67945466916763</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7505246030893</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.68108488105619</v>
       </c>
     </row>
@@ -33446,27 +33454,28 @@
       <c r="P5" t="n">
         <v>377.0174323831004</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.74598898539622 -36.68307100022963, 174.75582741129088 -36.68060172216417)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7459889853962</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.68307100022963</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7558274112909</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.68060172216417</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7509081983436</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.6818363611969</v>
       </c>
     </row>
@@ -33523,27 +33532,28 @@
       <c r="P6" t="n">
         <v>387.478233238057</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.7460910807978 -36.68358564677986, 174.75609909041776 -36.68160544652905)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7460910807978</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.68358564677986</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7560990904178</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.68160544652905</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7510950856078</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.68259554665445</v>
       </c>
     </row>
@@ -33600,27 +33610,28 @@
       <c r="P7" t="n">
         <v>392.2937065325007</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.74640511761024 -36.68449271093772, 174.7562200633887 -36.681963446450574)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7464051176102</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.68449271093772</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7562200633887</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.68196344645057</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7513125904995</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.68322807869414</v>
       </c>
     </row>
@@ -33677,27 +33688,28 @@
       <c r="P8" t="n">
         <v>392.8839333129073</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.7467287013772 -36.68526123182616, 174.75645183048127 -36.68251203537312)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7467287013772</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.68526123182616</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.7564518304813</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.68251203537312</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7515902659292</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.68388663359964</v>
       </c>
     </row>
@@ -33754,27 +33766,28 @@
       <c r="P9" t="n">
         <v>392.436913071828</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.74701652001593 -36.685943644133175, 174.75673969688296 -36.683194439481646)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.7470165200159</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.68594364413318</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.756739696883</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.68319443948165</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.7518781084494</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.68456904180741</v>
       </c>
     </row>
@@ -33831,27 +33844,28 @@
       <c r="P10" t="n">
         <v>393.5574590874604</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.7473043386543 -36.6866260503853, 174.75702756328542 -36.683876837535394)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.7473043386543</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.6866260503853</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.7570275632854</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.68387683753539</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.7521659509699</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.68525144396035</v>
       </c>
     </row>
@@ -33908,27 +33922,28 @@
       <c r="P11" t="n">
         <v>392.8119976022547</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.7476508192542 -36.68743484836185, 174.75722350081196 -36.68436280294616)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.7476508192542</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.68743484836185</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.757223500812</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.68436280294616</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.7524371600331</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.68589882565401</v>
       </c>
     </row>
@@ -33985,27 +34000,28 @@
       <c r="P12" t="n">
         <v>392.0274318895759</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.74809842355305 -36.68826396783249, 174.75743961295373 -36.68476116564556)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.748098423553</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.68826396783249</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.7574396129537</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.68476116564556</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.7527690182534</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.68651256673903</v>
       </c>
     </row>
@@ -34062,27 +34078,28 @@
       <c r="P13" t="n">
         <v>391.4807146646829</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.74850640466582 -36.68895984831127, 174.75778129899888 -36.6853448402087)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.7485064046658</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.68895984831127</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.7577812989989</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.6853448402087</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.7531438518324</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.68715234425999</v>
       </c>
     </row>
@@ -34139,27 +34156,28 @@
       <c r="P14" t="n">
         <v>396.4034687232249</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.74888851952352 -36.68961178637735, 174.7581634512747 -36.68599676853558)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.7488885195235</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.68961178637735</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.7581634512747</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.68599676853558</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.7535259853991</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.68780427745646</v>
       </c>
     </row>

--- a/data/nzd0151/nzd0151.xlsx
+++ b/data/nzd0151/nzd0151.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O583"/>
+  <dimension ref="A1:O590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27025,6 +27025,345 @@
         </is>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>408.74</v>
+      </c>
+      <c r="C584" t="n">
+        <v>395.04</v>
+      </c>
+      <c r="D584" t="n">
+        <v>387.23</v>
+      </c>
+      <c r="E584" t="n">
+        <v>381.27</v>
+      </c>
+      <c r="F584" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="G584" t="n">
+        <v>391.96</v>
+      </c>
+      <c r="H584" t="n">
+        <v>389.24</v>
+      </c>
+      <c r="I584" t="n">
+        <v>390.72</v>
+      </c>
+      <c r="J584" t="n">
+        <v>390.24</v>
+      </c>
+      <c r="K584" t="n">
+        <v>392.06</v>
+      </c>
+      <c r="L584" t="n">
+        <v>387.34</v>
+      </c>
+      <c r="M584" t="n">
+        <v>384.44</v>
+      </c>
+      <c r="N584" t="n">
+        <v>381.67</v>
+      </c>
+      <c r="O584" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr"/>
+      <c r="C585" t="inlineStr"/>
+      <c r="D585" t="n">
+        <v>392.24</v>
+      </c>
+      <c r="E585" t="n">
+        <v>357.63</v>
+      </c>
+      <c r="F585" t="n">
+        <v>359.33</v>
+      </c>
+      <c r="G585" t="n">
+        <v>362.2</v>
+      </c>
+      <c r="H585" t="n">
+        <v>365.36</v>
+      </c>
+      <c r="I585" t="n">
+        <v>381.27</v>
+      </c>
+      <c r="J585" t="n">
+        <v>388.11</v>
+      </c>
+      <c r="K585" t="n">
+        <v>399.82</v>
+      </c>
+      <c r="L585" t="n">
+        <v>391.17</v>
+      </c>
+      <c r="M585" t="n">
+        <v>391.32</v>
+      </c>
+      <c r="N585" t="n">
+        <v>387.14</v>
+      </c>
+      <c r="O585" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>416.0766666666667</v>
+      </c>
+      <c r="C586" t="n">
+        <v>397.29</v>
+      </c>
+      <c r="D586" t="n">
+        <v>388.24</v>
+      </c>
+      <c r="E586" t="n">
+        <v>379.0933333333333</v>
+      </c>
+      <c r="F586" t="n">
+        <v>392.5133333333333</v>
+      </c>
+      <c r="G586" t="n">
+        <v>396.9633333333333</v>
+      </c>
+      <c r="H586" t="n">
+        <v>401.1033333333333</v>
+      </c>
+      <c r="I586" t="n">
+        <v>402.1833333333333</v>
+      </c>
+      <c r="J586" t="n">
+        <v>405.2733333333333</v>
+      </c>
+      <c r="K586" t="n">
+        <v>406.1433333333333</v>
+      </c>
+      <c r="L586" t="n">
+        <v>403.9433333333333</v>
+      </c>
+      <c r="M586" t="n">
+        <v>400.2933333333333</v>
+      </c>
+      <c r="N586" t="n">
+        <v>401.47</v>
+      </c>
+      <c r="O586" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr"/>
+      <c r="C587" t="inlineStr"/>
+      <c r="D587" t="inlineStr"/>
+      <c r="E587" t="inlineStr"/>
+      <c r="F587" t="inlineStr"/>
+      <c r="G587" t="n">
+        <v>389.17</v>
+      </c>
+      <c r="H587" t="n">
+        <v>390.52</v>
+      </c>
+      <c r="I587" t="n">
+        <v>388.23</v>
+      </c>
+      <c r="J587" t="n">
+        <v>391.27</v>
+      </c>
+      <c r="K587" t="n">
+        <v>387.57</v>
+      </c>
+      <c r="L587" t="n">
+        <v>379.56</v>
+      </c>
+      <c r="M587" t="n">
+        <v>377.77</v>
+      </c>
+      <c r="N587" t="n">
+        <v>375.25</v>
+      </c>
+      <c r="O587" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr"/>
+      <c r="C588" t="inlineStr"/>
+      <c r="D588" t="n">
+        <v>384.23</v>
+      </c>
+      <c r="E588" t="n">
+        <v>377.9033333333333</v>
+      </c>
+      <c r="F588" t="n">
+        <v>385.6433333333333</v>
+      </c>
+      <c r="G588" t="n">
+        <v>387.6733333333333</v>
+      </c>
+      <c r="H588" t="n">
+        <v>389.7033333333333</v>
+      </c>
+      <c r="I588" t="n">
+        <v>391.4133333333333</v>
+      </c>
+      <c r="J588" t="n">
+        <v>394.6133333333333</v>
+      </c>
+      <c r="K588" t="n">
+        <v>400.0233333333333</v>
+      </c>
+      <c r="L588" t="n">
+        <v>388.4933333333333</v>
+      </c>
+      <c r="M588" t="n">
+        <v>388.4533333333333</v>
+      </c>
+      <c r="N588" t="n">
+        <v>393.73</v>
+      </c>
+      <c r="O588" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>401.5766666666667</v>
+      </c>
+      <c r="C589" t="n">
+        <v>382.17</v>
+      </c>
+      <c r="D589" t="n">
+        <v>376.03</v>
+      </c>
+      <c r="E589" t="n">
+        <v>373.7633333333333</v>
+      </c>
+      <c r="F589" t="n">
+        <v>383.1133333333333</v>
+      </c>
+      <c r="G589" t="n">
+        <v>387.0333333333333</v>
+      </c>
+      <c r="H589" t="n">
+        <v>387.9333333333333</v>
+      </c>
+      <c r="I589" t="n">
+        <v>389.9833333333333</v>
+      </c>
+      <c r="J589" t="n">
+        <v>390.6633333333333</v>
+      </c>
+      <c r="K589" t="n">
+        <v>391.4133333333333</v>
+      </c>
+      <c r="L589" t="n">
+        <v>386.9533333333333</v>
+      </c>
+      <c r="M589" t="n">
+        <v>385.1133333333333</v>
+      </c>
+      <c r="N589" t="n">
+        <v>386.28</v>
+      </c>
+      <c r="O589" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>393.51</v>
+      </c>
+      <c r="C590" t="n">
+        <v>378.34</v>
+      </c>
+      <c r="D590" t="n">
+        <v>370.44</v>
+      </c>
+      <c r="E590" t="n">
+        <v>365.46</v>
+      </c>
+      <c r="F590" t="n">
+        <v>374.24</v>
+      </c>
+      <c r="G590" t="n">
+        <v>381.7</v>
+      </c>
+      <c r="H590" t="n">
+        <v>382.13</v>
+      </c>
+      <c r="I590" t="n">
+        <v>385.37</v>
+      </c>
+      <c r="J590" t="n">
+        <v>385.91</v>
+      </c>
+      <c r="K590" t="n">
+        <v>387.12</v>
+      </c>
+      <c r="L590" t="n">
+        <v>383.81</v>
+      </c>
+      <c r="M590" t="n">
+        <v>378.74</v>
+      </c>
+      <c r="N590" t="n">
+        <v>383.49</v>
+      </c>
+      <c r="O590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27036,7 +27375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B598"/>
+  <dimension ref="A1:B605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33024,6 +33363,76 @@
       </c>
       <c r="B598" t="n">
         <v>-0.41</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -33197,28 +33606,28 @@
         <v>0.0151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4626668791785284</v>
+        <v>-0.4619132601063272</v>
       </c>
       <c r="J2" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K2" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03744822951012661</v>
+        <v>0.03793319550981678</v>
       </c>
       <c r="M2" t="n">
-        <v>13.78857603739048</v>
+        <v>13.72917886861841</v>
       </c>
       <c r="N2" t="n">
-        <v>298.4101316255855</v>
+        <v>296.2905522037206</v>
       </c>
       <c r="O2" t="n">
-        <v>17.27455156076665</v>
+        <v>17.21309246485711</v>
       </c>
       <c r="P2" t="n">
-        <v>416.3556196770068</v>
+        <v>416.3484320993412</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33275,28 +33684,28 @@
         <v>0.0208</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3549407967358984</v>
+        <v>-0.3515162498348177</v>
       </c>
       <c r="J3" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K3" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0317781403472186</v>
+        <v>0.03164428326108282</v>
       </c>
       <c r="M3" t="n">
-        <v>11.32996115155935</v>
+        <v>11.30049227018911</v>
       </c>
       <c r="N3" t="n">
-        <v>206.2097181749117</v>
+        <v>205.0249755983821</v>
       </c>
       <c r="O3" t="n">
-        <v>14.36000411472475</v>
+        <v>14.31869322244115</v>
       </c>
       <c r="P3" t="n">
-        <v>395.2173139047011</v>
+        <v>395.1836765810245</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33353,28 +33762,28 @@
         <v>0.0258</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3258812711753855</v>
+        <v>-0.3105454619967788</v>
       </c>
       <c r="J4" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K4" t="n">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03720259957301453</v>
+        <v>0.03450982726020824</v>
       </c>
       <c r="M4" t="n">
-        <v>9.477959248822248</v>
+        <v>9.458310735120326</v>
       </c>
       <c r="N4" t="n">
-        <v>145.6261621271282</v>
+        <v>144.9428804959979</v>
       </c>
       <c r="O4" t="n">
-        <v>12.0675665370914</v>
+        <v>12.03922258686157</v>
       </c>
       <c r="P4" t="n">
-        <v>385.2469195087683</v>
+        <v>385.0938732618822</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33431,28 +33840,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2036797831507131</v>
+        <v>-0.2019747641853577</v>
       </c>
       <c r="J5" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K5" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01876884297904613</v>
+        <v>0.01878280056255255</v>
       </c>
       <c r="M5" t="n">
-        <v>8.515445249701857</v>
+        <v>8.502328029596331</v>
       </c>
       <c r="N5" t="n">
-        <v>116.2331828830964</v>
+        <v>115.6528386062864</v>
       </c>
       <c r="O5" t="n">
-        <v>10.78114942309475</v>
+        <v>10.75420097479522</v>
       </c>
       <c r="P5" t="n">
-        <v>377.0174323831004</v>
+        <v>377.0004104431348</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33509,28 +33918,28 @@
         <v>0.0304</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2169599101260755</v>
+        <v>-0.2195020574110941</v>
       </c>
       <c r="J6" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K6" t="n">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01971503795433571</v>
+        <v>0.02041735750021234</v>
       </c>
       <c r="M6" t="n">
-        <v>8.857043874938702</v>
+        <v>8.86112919677803</v>
       </c>
       <c r="N6" t="n">
-        <v>125.2333703612034</v>
+        <v>125.2737073800077</v>
       </c>
       <c r="O6" t="n">
-        <v>11.19077166066771</v>
+        <v>11.19257376031124</v>
       </c>
       <c r="P6" t="n">
-        <v>387.478233238057</v>
+        <v>387.5037729494392</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33587,28 +33996,28 @@
         <v>0.0302</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2392619824280696</v>
+        <v>-0.2418590384349231</v>
       </c>
       <c r="J7" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K7" t="n">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02320862513863209</v>
+        <v>0.02409083924431887</v>
       </c>
       <c r="M7" t="n">
-        <v>8.722533141189139</v>
+        <v>8.701206653613774</v>
       </c>
       <c r="N7" t="n">
-        <v>126.2577879502113</v>
+        <v>125.9913533194416</v>
       </c>
       <c r="O7" t="n">
-        <v>11.2364490810136</v>
+        <v>11.22458699994978</v>
       </c>
       <c r="P7" t="n">
-        <v>392.2937065325007</v>
+        <v>392.3201213095568</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33665,28 +34074,28 @@
         <v>0.0303</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2475677180061478</v>
+        <v>-0.2475028950248033</v>
       </c>
       <c r="J8" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K8" t="n">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02439970811167991</v>
+        <v>0.02479489987112171</v>
       </c>
       <c r="M8" t="n">
-        <v>8.724161628087453</v>
+        <v>8.703766077179656</v>
       </c>
       <c r="N8" t="n">
-        <v>128.7664269017169</v>
+        <v>128.3765250356689</v>
       </c>
       <c r="O8" t="n">
-        <v>11.34752955059897</v>
+        <v>11.33033649260555</v>
       </c>
       <c r="P8" t="n">
-        <v>392.8839333129073</v>
+        <v>392.883196527033</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33743,28 +34152,28 @@
         <v>0.0303</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.103897533566487</v>
+        <v>-0.1036196982259361</v>
       </c>
       <c r="J9" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K9" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004993552330698425</v>
+        <v>0.005089344134127427</v>
       </c>
       <c r="M9" t="n">
-        <v>8.405812834673041</v>
+        <v>8.345210044031734</v>
       </c>
       <c r="N9" t="n">
-        <v>114.1312313670759</v>
+        <v>112.9958892670754</v>
       </c>
       <c r="O9" t="n">
-        <v>10.68322195627686</v>
+        <v>10.62995245836384</v>
       </c>
       <c r="P9" t="n">
-        <v>392.436913071828</v>
+        <v>392.4341308625273</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33821,28 +34230,28 @@
         <v>0.0302</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.06115276436581991</v>
+        <v>-0.06033408670826666</v>
       </c>
       <c r="J10" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K10" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002132154099156569</v>
+        <v>0.002124198553256296</v>
       </c>
       <c r="M10" t="n">
-        <v>7.663868331229686</v>
+        <v>7.6147285247037</v>
       </c>
       <c r="N10" t="n">
-        <v>93.50337733837723</v>
+        <v>92.64997761776105</v>
       </c>
       <c r="O10" t="n">
-        <v>9.669714439339831</v>
+        <v>9.625485838011558</v>
       </c>
       <c r="P10" t="n">
-        <v>393.5574590874604</v>
+        <v>393.5492627194013</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33899,28 +34308,28 @@
         <v>0.0347</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03897672097033574</v>
+        <v>0.04196519358403426</v>
       </c>
       <c r="J11" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K11" t="n">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0006894416971611195</v>
+        <v>0.000818568583815682</v>
       </c>
       <c r="M11" t="n">
-        <v>8.453191095488727</v>
+        <v>8.416366213639797</v>
       </c>
       <c r="N11" t="n">
-        <v>117.9327830940692</v>
+        <v>116.8574558347715</v>
       </c>
       <c r="O11" t="n">
-        <v>10.85968614160046</v>
+        <v>10.81006271187968</v>
       </c>
       <c r="P11" t="n">
-        <v>392.8119976022547</v>
+        <v>392.7822278024181</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33977,28 +34386,28 @@
         <v>0.0349</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1165614383420787</v>
+        <v>-0.1174252109772603</v>
       </c>
       <c r="J12" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K12" t="n">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00571444802768728</v>
+        <v>0.005945960797959282</v>
       </c>
       <c r="M12" t="n">
-        <v>8.933027039213753</v>
+        <v>8.87645639727439</v>
       </c>
       <c r="N12" t="n">
-        <v>128.2880705007347</v>
+        <v>127.1147969545211</v>
       </c>
       <c r="O12" t="n">
-        <v>11.32643238185505</v>
+        <v>11.27451981037424</v>
       </c>
       <c r="P12" t="n">
-        <v>392.0274318895759</v>
+        <v>392.0360281501754</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34055,28 +34464,28 @@
         <v>0.0307</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1494256868831836</v>
+        <v>-0.1525618497867949</v>
       </c>
       <c r="J13" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K13" t="n">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01072605847232766</v>
+        <v>0.01144380554224267</v>
       </c>
       <c r="M13" t="n">
-        <v>8.410568134934529</v>
+        <v>8.373389246452097</v>
       </c>
       <c r="N13" t="n">
-        <v>110.4584206305689</v>
+        <v>109.5759468002298</v>
       </c>
       <c r="O13" t="n">
-        <v>10.50992010581283</v>
+        <v>10.46785301770281</v>
       </c>
       <c r="P13" t="n">
-        <v>391.4807146646829</v>
+        <v>391.5119886335397</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34133,28 +34542,28 @@
         <v>0.0257</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2013853565006757</v>
+        <v>-0.2140625125335154</v>
       </c>
       <c r="J14" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K14" t="n">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01352863132726423</v>
+        <v>0.01561892319558622</v>
       </c>
       <c r="M14" t="n">
-        <v>9.919900844804246</v>
+        <v>9.890460235128085</v>
       </c>
       <c r="N14" t="n">
-        <v>155.6335106786574</v>
+        <v>154.447520646409</v>
       </c>
       <c r="O14" t="n">
-        <v>12.47531605526118</v>
+        <v>12.42769168616638</v>
       </c>
       <c r="P14" t="n">
-        <v>396.4034687232249</v>
+        <v>396.5313765782161</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34192,7 +34601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O583"/>
+  <dimension ref="A1:O590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72751,6 +73160,509 @@
         </is>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>-36.679929282899124,174.749174464343</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>-36.680633107580356,174.74949779256377</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>-36.681344199114626,174.74977132851663</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>-36.682048862395305,174.7500619882843</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>-36.68274617356385,174.75033438933255</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>-36.683416368827245,174.75058237917193</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>-36.68409937276417,174.75083829111136</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>-36.68477736004745,174.75114176820287</t>
+        </is>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>-36.68546119213177,174.7514245518908</t>
+        </is>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>-36.6861270616216,174.75172634534385</t>
+        </is>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>-36.68679064632814,174.7520277799778</t>
+        </is>
+      </c>
+      <c r="M584" t="inlineStr">
+        <is>
+          <t>-36.68745068154676,174.7523787461028</t>
+        </is>
+      </c>
+      <c r="N584" t="inlineStr">
+        <is>
+          <t>-36.68811348562947,174.75273298689635</t>
+        </is>
+      </c>
+      <c r="O584" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr"/>
+      <c r="C585" t="inlineStr"/>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>-36.68132646157413,174.74982287895128</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>-36.682112242294046,174.7498094519311</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>-36.68281318640984,174.74999568889695</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>-36.68349809634366,174.750265220206</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>-36.68417065719148,174.7505861701594</t>
+        </is>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>-36.68480556958284,174.75104199599525</t>
+        </is>
+      </c>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>-36.6854675505161,174.75140206337846</t>
+        </is>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>-36.68610117536967,174.75180701033645</t>
+        </is>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>-36.68677607756367,174.75206663250262</t>
+        </is>
+      </c>
+      <c r="M585" t="inlineStr">
+        <is>
+          <t>-36.68742367214156,174.752448044732</t>
+        </is>
+      </c>
+      <c r="N585" t="inlineStr">
+        <is>
+          <t>-36.68809201147738,174.75278808373827</t>
+        </is>
+      </c>
+      <c r="O585" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>-36.67989588491563,174.74924531140965</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>-36.680623986914725,174.74952027734244</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>-36.68134062328486,174.74978172092156</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>-36.68205469815809,174.75003873587175</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>-36.682741845035984,174.75035626665715</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>-36.68340262849027,174.7506357007436</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>-36.68406395921467,174.75096354197353</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>-36.68474314032836,174.75126279689175</t>
+        </is>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>-36.68541631515382,174.75158327351926</t>
+        </is>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>-36.68608008159317,174.75187274117607</t>
+        </is>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>-36.68672748956722,174.7521962084381</t>
+        </is>
+      </c>
+      <c r="M586" t="inlineStr">
+        <is>
+          <t>-36.68738844469955,174.7525384283345</t>
+        </is>
+      </c>
+      <c r="N586" t="inlineStr">
+        <is>
+          <t>-36.68803575457758,174.75293242321328</t>
+        </is>
+      </c>
+      <c r="O586" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr"/>
+      <c r="C587" t="inlineStr"/>
+      <c r="D587" t="inlineStr"/>
+      <c r="E587" t="inlineStr"/>
+      <c r="F587" t="inlineStr"/>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>-36.68342403081709,174.75055264554874</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>-36.684095551808596,174.75085180511854</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>-36.68478479304409,174.75111547902534</t>
+        </is>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>-36.685458117418584,174.75143542661604</t>
+        </is>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>-36.6861420395961,174.7516796718883</t>
+        </is>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>-36.68682024028176,174.75194885757028</t>
+        </is>
+      </c>
+      <c r="M587" t="inlineStr">
+        <is>
+          <t>-36.68747686649958,174.75231156264587</t>
+        </is>
+      </c>
+      <c r="N587" t="inlineStr">
+        <is>
+          <t>-36.688138689264505,174.75266832109295</t>
+        </is>
+      </c>
+      <c r="O587" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr"/>
+      <c r="C588" t="inlineStr"/>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>-36.68135482038595,174.74974045998115</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>-36.68205788861152,174.75002602360175</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>-36.682756615046074,174.75028161570938</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>-36.68342814100939,174.7505366952513</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>-36.68409798965803,174.75084318290055</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>-36.68477529034991,174.75114908834772</t>
+        </is>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>-36.68544813703227,174.75147072547526</t>
+        </is>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>-36.686100497077994,174.75180912398028</t>
+        </is>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>-36.68678625921674,174.7520394796953</t>
+        </is>
+      </c>
+      <c r="M588" t="inlineStr">
+        <is>
+          <t>-36.687434926065166,174.75241917030922</t>
+        </is>
+      </c>
+      <c r="N588" t="inlineStr">
+        <is>
+          <t>-36.68806614039105,174.75285446179302</t>
+        </is>
+      </c>
+      <c r="O588" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>-36.67996189179509,174.74910529102235</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>-36.68068527770865,174.7493691795252</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>-36.68138385182112,174.7496560859396</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>-36.682068988161774,174.74998179771273</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>-36.68276205435405,174.7502541241591</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>-36.683429898596515,174.75052987463357</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>-36.68410327332144,174.75082449556092</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>-36.68477955910059,174.75113399054848</t>
+        </is>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>-36.68545992841482,174.75142902143818</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>-36.68612921880685,174.75171962325862</t>
+        </is>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>-36.68679211715139,174.75202385752885</t>
+        </is>
+      </c>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>-36.68744803818617,174.75238552823828</t>
+        </is>
+      </c>
+      <c r="N589" t="inlineStr">
+        <is>
+          <t>-36.68809538767112,174.75277942134838</t>
+        </is>
+      </c>
+      <c r="O589" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>-36.679998612794805,174.74902739451744</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>-36.6807008030588,174.74933090536976</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>-36.68140364272949,174.74959856750056</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>-36.682091249771574,174.74989309663425</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>-36.68278113129778,174.75015770448647</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>-36.68344454514119,174.75047303614008</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>-36.684120596951054,174.75076322499922</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>-36.68479333053521,174.7510852834174</t>
+        </is>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>-36.68547411785706,174.75137883580297</t>
+        </is>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>-36.68614354072841,174.75167499414673</t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>-36.686804073925224,174.75199197071834</t>
+        </is>
+      </c>
+      <c r="M590" t="inlineStr">
+        <is>
+          <t>-36.68747305849523,174.7523213329566</t>
+        </is>
+      </c>
+      <c r="N590" t="inlineStr">
+        <is>
+          <t>-36.68810634066754,174.75275131893866</t>
+        </is>
+      </c>
+      <c r="O590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0151/nzd0151.xlsx
+++ b/data/nzd0151/nzd0151.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O590"/>
+  <dimension ref="A1:O595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27364,6 +27364,239 @@
         </is>
       </c>
     </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>375.3666666666667</v>
+      </c>
+      <c r="C591" t="n">
+        <v>354.89</v>
+      </c>
+      <c r="D591" t="n">
+        <v>351.08</v>
+      </c>
+      <c r="E591" t="n">
+        <v>343.0033333333333</v>
+      </c>
+      <c r="F591" t="n">
+        <v>357.8533333333333</v>
+      </c>
+      <c r="G591" t="n">
+        <v>371.3833333333333</v>
+      </c>
+      <c r="H591" t="n">
+        <v>377.5333333333333</v>
+      </c>
+      <c r="I591" t="n">
+        <v>377.7333333333333</v>
+      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="inlineStr"/>
+      <c r="M591" t="n">
+        <v>374.0433333333333</v>
+      </c>
+      <c r="N591" t="inlineStr"/>
+      <c r="O591" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>403.4133333333333</v>
+      </c>
+      <c r="C592" t="n">
+        <v>378.38</v>
+      </c>
+      <c r="D592" t="n">
+        <v>377.54</v>
+      </c>
+      <c r="E592" t="n">
+        <v>372.9966666666666</v>
+      </c>
+      <c r="F592" t="n">
+        <v>381.0166666666667</v>
+      </c>
+      <c r="G592" t="n">
+        <v>381.2566666666667</v>
+      </c>
+      <c r="H592" t="n">
+        <v>385.8566666666667</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="inlineStr"/>
+      <c r="M592" t="inlineStr"/>
+      <c r="N592" t="inlineStr"/>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>396.3666666666667</v>
+      </c>
+      <c r="C593" t="inlineStr"/>
+      <c r="D593" t="n">
+        <v>352.41</v>
+      </c>
+      <c r="E593" t="n">
+        <v>360.2433333333333</v>
+      </c>
+      <c r="F593" t="n">
+        <v>368.1333333333333</v>
+      </c>
+      <c r="G593" t="n">
+        <v>377.7133333333333</v>
+      </c>
+      <c r="H593" t="n">
+        <v>382.0733333333333</v>
+      </c>
+      <c r="I593" t="n">
+        <v>383.6433333333333</v>
+      </c>
+      <c r="J593" t="n">
+        <v>385.5033333333333</v>
+      </c>
+      <c r="K593" t="n">
+        <v>380.8733333333333</v>
+      </c>
+      <c r="L593" t="n">
+        <v>368.0033333333333</v>
+      </c>
+      <c r="M593" t="n">
+        <v>369.8233333333333</v>
+      </c>
+      <c r="N593" t="n">
+        <v>373.16</v>
+      </c>
+      <c r="O593" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>414.03</v>
+      </c>
+      <c r="C594" t="n">
+        <v>395.33</v>
+      </c>
+      <c r="D594" t="n">
+        <v>382.69</v>
+      </c>
+      <c r="E594" t="n">
+        <v>376.33</v>
+      </c>
+      <c r="F594" t="n">
+        <v>384.42</v>
+      </c>
+      <c r="G594" t="n">
+        <v>386.81</v>
+      </c>
+      <c r="H594" t="n">
+        <v>392.18</v>
+      </c>
+      <c r="I594" t="n">
+        <v>394.03</v>
+      </c>
+      <c r="J594" t="n">
+        <v>392.27</v>
+      </c>
+      <c r="K594" t="n">
+        <v>387.48</v>
+      </c>
+      <c r="L594" t="n">
+        <v>379.16</v>
+      </c>
+      <c r="M594" t="n">
+        <v>378.57</v>
+      </c>
+      <c r="N594" t="n">
+        <v>384.3</v>
+      </c>
+      <c r="O594" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>402.1066666666667</v>
+      </c>
+      <c r="C595" t="n">
+        <v>387.69</v>
+      </c>
+      <c r="D595" t="n">
+        <v>374.64</v>
+      </c>
+      <c r="E595" t="n">
+        <v>363.3533333333333</v>
+      </c>
+      <c r="F595" t="n">
+        <v>377.0933333333333</v>
+      </c>
+      <c r="G595" t="n">
+        <v>385.0133333333333</v>
+      </c>
+      <c r="H595" t="n">
+        <v>383.3033333333333</v>
+      </c>
+      <c r="I595" t="n">
+        <v>387.8833333333333</v>
+      </c>
+      <c r="J595" t="n">
+        <v>388.9233333333333</v>
+      </c>
+      <c r="K595" t="n">
+        <v>398.8533333333333</v>
+      </c>
+      <c r="L595" t="n">
+        <v>402.3633333333333</v>
+      </c>
+      <c r="M595" t="n">
+        <v>400.3333333333333</v>
+      </c>
+      <c r="N595" t="n">
+        <v>405.53</v>
+      </c>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27375,7 +27608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B605"/>
+  <dimension ref="A1:B610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33433,6 +33666,56 @@
       </c>
       <c r="B605" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -33606,28 +33889,28 @@
         <v>0.0151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4619132601063272</v>
+        <v>-0.4753050337388494</v>
       </c>
       <c r="J2" t="n">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K2" t="n">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03793319550981678</v>
+        <v>0.04066780860121322</v>
       </c>
       <c r="M2" t="n">
-        <v>13.72917886861841</v>
+        <v>13.68947122465184</v>
       </c>
       <c r="N2" t="n">
-        <v>296.2905522037206</v>
+        <v>295.1992321581051</v>
       </c>
       <c r="O2" t="n">
-        <v>17.21309246485711</v>
+        <v>17.18136293074869</v>
       </c>
       <c r="P2" t="n">
-        <v>416.3484320993412</v>
+        <v>416.4815018701655</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33684,28 +33967,28 @@
         <v>0.0208</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3515162498348177</v>
+        <v>-0.3631779695210541</v>
       </c>
       <c r="J3" t="n">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K3" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03164428326108282</v>
+        <v>0.03390379869606908</v>
       </c>
       <c r="M3" t="n">
-        <v>11.30049227018911</v>
+        <v>11.31074897390977</v>
       </c>
       <c r="N3" t="n">
-        <v>205.0249755983821</v>
+        <v>205.6697966958843</v>
       </c>
       <c r="O3" t="n">
-        <v>14.31869322244115</v>
+        <v>14.34119230384574</v>
       </c>
       <c r="P3" t="n">
-        <v>395.1836765810245</v>
+        <v>395.299669691755</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33762,28 +34045,28 @@
         <v>0.0258</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3105454619967788</v>
+        <v>-0.3297845267450237</v>
       </c>
       <c r="J4" t="n">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K4" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03450982726020824</v>
+        <v>0.03884178936436566</v>
       </c>
       <c r="M4" t="n">
-        <v>9.458310735120326</v>
+        <v>9.493518859486938</v>
       </c>
       <c r="N4" t="n">
-        <v>144.9428804959979</v>
+        <v>146.191805023701</v>
       </c>
       <c r="O4" t="n">
-        <v>12.03922258686157</v>
+        <v>12.09098031690156</v>
       </c>
       <c r="P4" t="n">
-        <v>385.0938732618822</v>
+        <v>385.2872896488408</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33840,28 +34123,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2019747641853577</v>
+        <v>-0.2189661386125413</v>
       </c>
       <c r="J5" t="n">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K5" t="n">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01878280056255255</v>
+        <v>0.02203990986240001</v>
       </c>
       <c r="M5" t="n">
-        <v>8.502328029596331</v>
+        <v>8.53585507336267</v>
       </c>
       <c r="N5" t="n">
-        <v>115.6528386062864</v>
+        <v>116.6369363021084</v>
       </c>
       <c r="O5" t="n">
-        <v>10.75420097479522</v>
+        <v>10.79985816120325</v>
       </c>
       <c r="P5" t="n">
-        <v>377.0004104431348</v>
+        <v>377.1717331627416</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33918,28 +34201,28 @@
         <v>0.0304</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2195020574110941</v>
+        <v>-0.2357389919615298</v>
       </c>
       <c r="J6" t="n">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K6" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02041735750021234</v>
+        <v>0.02365141677556615</v>
       </c>
       <c r="M6" t="n">
-        <v>8.86112919677803</v>
+        <v>8.872984500798358</v>
       </c>
       <c r="N6" t="n">
-        <v>125.2737073800077</v>
+        <v>125.6101802147801</v>
       </c>
       <c r="O6" t="n">
-        <v>11.19257376031124</v>
+        <v>11.20759475600274</v>
       </c>
       <c r="P6" t="n">
-        <v>387.5037729494392</v>
+        <v>387.6675475490081</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33996,28 +34279,28 @@
         <v>0.0302</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2418590384349231</v>
+        <v>-0.2529528529286509</v>
       </c>
       <c r="J7" t="n">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K7" t="n">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02409083924431887</v>
+        <v>0.02668689064989549</v>
       </c>
       <c r="M7" t="n">
-        <v>8.701206653613774</v>
+        <v>8.675967965029631</v>
       </c>
       <c r="N7" t="n">
-        <v>125.9913533194416</v>
+        <v>125.3240865535448</v>
       </c>
       <c r="O7" t="n">
-        <v>11.22458699994978</v>
+        <v>11.19482409658789</v>
       </c>
       <c r="P7" t="n">
-        <v>392.3201213095568</v>
+        <v>392.4337232026308</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34074,28 +34357,28 @@
         <v>0.0303</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2475028950248033</v>
+        <v>-0.2520233712702838</v>
       </c>
       <c r="J8" t="n">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K8" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02479489987112171</v>
+        <v>0.02613288572280259</v>
       </c>
       <c r="M8" t="n">
-        <v>8.703766077179656</v>
+        <v>8.662406468295901</v>
       </c>
       <c r="N8" t="n">
-        <v>128.3765250356689</v>
+        <v>127.3409658881404</v>
       </c>
       <c r="O8" t="n">
-        <v>11.33033649260555</v>
+        <v>11.28454544446255</v>
       </c>
       <c r="P8" t="n">
-        <v>392.883196527033</v>
+        <v>392.9296089298381</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34152,28 +34435,28 @@
         <v>0.0303</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1036196982259361</v>
+        <v>-0.1097520751451212</v>
       </c>
       <c r="J9" t="n">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K9" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005089344134127427</v>
+        <v>0.005777916726210197</v>
       </c>
       <c r="M9" t="n">
-        <v>8.345210044031734</v>
+        <v>8.326937079888582</v>
       </c>
       <c r="N9" t="n">
-        <v>112.9958892670754</v>
+        <v>112.4830387738136</v>
       </c>
       <c r="O9" t="n">
-        <v>10.62995245836384</v>
+        <v>10.60580212778899</v>
       </c>
       <c r="P9" t="n">
-        <v>392.4341308625273</v>
+        <v>392.4962681550646</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34230,28 +34513,28 @@
         <v>0.0302</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.06033408670826666</v>
+        <v>-0.06392711683799032</v>
       </c>
       <c r="J10" t="n">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K10" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002124198553256296</v>
+        <v>0.002410344312881119</v>
       </c>
       <c r="M10" t="n">
-        <v>7.6147285247037</v>
+        <v>7.586730991442398</v>
       </c>
       <c r="N10" t="n">
-        <v>92.64997761776105</v>
+        <v>92.18529408953648</v>
       </c>
       <c r="O10" t="n">
-        <v>9.625485838011558</v>
+        <v>9.601317310116174</v>
       </c>
       <c r="P10" t="n">
-        <v>393.5492627194013</v>
+        <v>393.5856649429577</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34308,28 +34591,28 @@
         <v>0.0347</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04196519358403426</v>
+        <v>0.03622891555986375</v>
       </c>
       <c r="J11" t="n">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K11" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000818568583815682</v>
+        <v>0.0006153556269744564</v>
       </c>
       <c r="M11" t="n">
-        <v>8.416366213639797</v>
+        <v>8.413527011643001</v>
       </c>
       <c r="N11" t="n">
-        <v>116.8574558347715</v>
+        <v>116.6094386236406</v>
       </c>
       <c r="O11" t="n">
-        <v>10.81006271187968</v>
+        <v>10.79858502877301</v>
       </c>
       <c r="P11" t="n">
-        <v>392.7822278024181</v>
+        <v>392.8399270151186</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34386,28 +34669,28 @@
         <v>0.0349</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1174252109772603</v>
+        <v>-0.1245239291151089</v>
       </c>
       <c r="J12" t="n">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K12" t="n">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005945960797959282</v>
+        <v>0.006689230997996343</v>
       </c>
       <c r="M12" t="n">
-        <v>8.87645639727439</v>
+        <v>8.915403212252762</v>
       </c>
       <c r="N12" t="n">
-        <v>127.1147969545211</v>
+        <v>127.826342057757</v>
       </c>
       <c r="O12" t="n">
-        <v>11.27451981037424</v>
+        <v>11.30603122487095</v>
       </c>
       <c r="P12" t="n">
-        <v>392.0360281501754</v>
+        <v>392.1060031504854</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34464,28 +34747,28 @@
         <v>0.0307</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1525618497867949</v>
+        <v>-0.1638281749130482</v>
       </c>
       <c r="J13" t="n">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K13" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01144380554224267</v>
+        <v>0.01321152581216245</v>
       </c>
       <c r="M13" t="n">
-        <v>8.373389246452097</v>
+        <v>8.416201353079378</v>
       </c>
       <c r="N13" t="n">
-        <v>109.5759468002298</v>
+        <v>110.2226447161748</v>
       </c>
       <c r="O13" t="n">
-        <v>10.46785301770281</v>
+        <v>10.49869728662441</v>
       </c>
       <c r="P13" t="n">
-        <v>391.5119886335397</v>
+        <v>391.6243357577554</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34542,28 +34825,28 @@
         <v>0.0257</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2140625125335154</v>
+        <v>-0.2182986751984927</v>
       </c>
       <c r="J14" t="n">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K14" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01561892319558622</v>
+        <v>0.01631568848180831</v>
       </c>
       <c r="M14" t="n">
-        <v>9.890460235128085</v>
+        <v>9.912193896300883</v>
       </c>
       <c r="N14" t="n">
-        <v>154.447520646409</v>
+        <v>154.6923878699561</v>
       </c>
       <c r="O14" t="n">
-        <v>12.42769168616638</v>
+        <v>12.43753946204618</v>
       </c>
       <c r="P14" t="n">
-        <v>396.5313765782161</v>
+        <v>396.57423834744</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34601,7 +34884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O590"/>
+  <dimension ref="A1:O595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73663,6 +73946,347 @@
         </is>
       </c>
     </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>-36.68008120451632,174.74885219148288</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>-36.68079586009896,174.74909656326494</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>-36.68147218491487,174.7493993620812</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>-36.682151456779295,174.74965320107648</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>-36.6828163610939,174.7499796430796</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>-36.68347287697553,174.75036308911507</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>-36.684134318517444,174.75071469418936</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>-36.68481612699285,174.75100465618303</t>
+        </is>
+      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="inlineStr"/>
+      <c r="M591" t="inlineStr">
+        <is>
+          <t>-36.68749149655713,174.75227402584144</t>
+        </is>
+      </c>
+      <c r="N591" t="inlineStr"/>
+      <c r="O591" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>-36.679953530932494,174.74912302695157</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>-36.6807006409142,174.74933130509996</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>-36.681378505792914,174.74967162311557</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>-36.68207104363227,174.74997360773182</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>-36.6827665620235,174.75023134130342</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>-36.68344576263403,174.75046831143928</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>-36.68410947241819,174.75080257048668</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="inlineStr"/>
+      <c r="M592" t="inlineStr"/>
+      <c r="N592" t="inlineStr"/>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>-36.67998560871087,174.74905498018916</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr"/>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>-36.68146747619042,174.74941304717592</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>-36.68210523585618,174.74983736911275</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>-36.68279426008891,174.7500913480182</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>-36.683455493415956,174.7504305493514</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>-36.68412076610753,174.7507626267225</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>-36.68479848486772,174.7510670534316</t>
+        </is>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>-36.685475331819596,174.7513745422204</t>
+        </is>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>-36.68616437865033,174.75161006014434</t>
+        </is>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>-36.686864200015265,174.75183162352792</t>
+        </is>
+      </c>
+      <c r="M593" t="inlineStr">
+        <is>
+          <t>-36.68750806331682,174.75223151992546</t>
+        </is>
+      </c>
+      <c r="N593" t="inlineStr">
+        <is>
+          <t>-36.68814689417882,174.75264726944357</t>
+        </is>
+      </c>
+      <c r="O593" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>-36.67990520175839,174.74922554762722</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>-36.680631932028135,174.74950069060222</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>-36.68136027263552,174.74972461412955</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>-36.68206210679998,174.75000921634117</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>-36.68275924512067,174.75026832269415</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>-36.68343051192111,174.75052749452212</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>-36.684090596504575,174.75086933109455</t>
+        </is>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>-36.68476747922787,174.75117671485233</t>
+        </is>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>-36.68545513225925,174.75144598460085</t>
+        </is>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>-36.686142339822574,174.75167873634</t>
+        </is>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>-36.686821761820426,174.7519447998613</t>
+        </is>
+      </c>
+      <c r="M594" t="inlineStr">
+        <is>
+          <t>-36.6874737258775,174.75231962063415</t>
+        </is>
+      </c>
+      <c r="N594" t="inlineStr">
+        <is>
+          <t>-36.68810316076602,174.7527594777036</t>
+        </is>
+      </c>
+      <c r="O594" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>-36.67995947913264,174.7491104090132</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>-36.68066290172608,174.74942434224886</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>-36.68138877299765,174.7496417835041</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>-36.68209689782926,174.7498705919764</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>-36.68277499687196,174.75018870946562</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>-36.683435445978446,174.75050834705684</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>-36.68411709441614,174.75077561284627</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>-36.684785827891886,174.75111181895204</t>
+        </is>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>-36.68546512258892,174.7514106505417</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>-36.68610440003455,174.75179696186535</t>
+        </is>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>-36.68673349967652,174.75218018052615</t>
+        </is>
+      </c>
+      <c r="M595" t="inlineStr">
+        <is>
+          <t>-36.687388287667716,174.75253883123298</t>
+        </is>
+      </c>
+      <c r="N595" t="inlineStr">
+        <is>
+          <t>-36.68801981574605,174.7529733176799</t>
+        </is>
+      </c>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0151/nzd0151.xlsx
+++ b/data/nzd0151/nzd0151.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O595"/>
+  <dimension ref="A1:O597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27597,6 +27597,106 @@
         </is>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>413.4833333333333</v>
+      </c>
+      <c r="C596" t="n">
+        <v>395.68</v>
+      </c>
+      <c r="D596" t="n">
+        <v>386.58</v>
+      </c>
+      <c r="E596" t="n">
+        <v>376.9966666666666</v>
+      </c>
+      <c r="F596" t="n">
+        <v>390.7766666666667</v>
+      </c>
+      <c r="G596" t="n">
+        <v>394.7966666666667</v>
+      </c>
+      <c r="H596" t="n">
+        <v>396.6766666666667</v>
+      </c>
+      <c r="I596" t="n">
+        <v>398.5466666666667</v>
+      </c>
+      <c r="J596" t="n">
+        <v>402.0666666666667</v>
+      </c>
+      <c r="K596" t="n">
+        <v>400.1166666666667</v>
+      </c>
+      <c r="L596" t="n">
+        <v>407.8666666666667</v>
+      </c>
+      <c r="M596" t="n">
+        <v>403.1466666666667</v>
+      </c>
+      <c r="N596" t="n">
+        <v>409.04</v>
+      </c>
+      <c r="O596" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>409.47</v>
+      </c>
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="n">
+        <v>371.53</v>
+      </c>
+      <c r="E597" t="n">
+        <v>366.78</v>
+      </c>
+      <c r="F597" t="n">
+        <v>377.91</v>
+      </c>
+      <c r="G597" t="n">
+        <v>377.74</v>
+      </c>
+      <c r="H597" t="n">
+        <v>385.6</v>
+      </c>
+      <c r="I597" t="n">
+        <v>386.94</v>
+      </c>
+      <c r="J597" t="n">
+        <v>386.87</v>
+      </c>
+      <c r="K597" t="n">
+        <v>378.67</v>
+      </c>
+      <c r="L597" t="n">
+        <v>372.29</v>
+      </c>
+      <c r="M597" t="n">
+        <v>371.29</v>
+      </c>
+      <c r="N597" t="n">
+        <v>375.88</v>
+      </c>
+      <c r="O597" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27608,7 +27708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B610"/>
+  <dimension ref="A1:B612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33716,6 +33816,26 @@
       </c>
       <c r="B610" t="n">
         <v>1.03</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>-0.87</v>
       </c>
     </row>
   </sheetData>
@@ -33889,28 +34009,28 @@
         <v>0.0151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4753050337388494</v>
+        <v>-0.4690859155368138</v>
       </c>
       <c r="J2" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K2" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04066780860121322</v>
+        <v>0.03996595474013287</v>
       </c>
       <c r="M2" t="n">
-        <v>13.68947122465184</v>
+        <v>13.65835263777703</v>
       </c>
       <c r="N2" t="n">
-        <v>295.1992321581051</v>
+        <v>294.1059788107585</v>
       </c>
       <c r="O2" t="n">
-        <v>17.18136293074869</v>
+        <v>17.14951832591104</v>
       </c>
       <c r="P2" t="n">
-        <v>416.4815018701655</v>
+        <v>416.4193828474172</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33967,28 +34087,28 @@
         <v>0.0208</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3631779695210541</v>
+        <v>-0.3591496866320544</v>
       </c>
       <c r="J3" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K3" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03390379869606908</v>
+        <v>0.03329025120291285</v>
       </c>
       <c r="M3" t="n">
-        <v>11.31074897390977</v>
+        <v>11.30699666275157</v>
       </c>
       <c r="N3" t="n">
-        <v>205.6697966958843</v>
+        <v>205.430528169167</v>
       </c>
       <c r="O3" t="n">
-        <v>14.34119230384574</v>
+        <v>14.33284787364908</v>
       </c>
       <c r="P3" t="n">
-        <v>395.299669691755</v>
+        <v>395.2593892875824</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34045,28 +34165,28 @@
         <v>0.0258</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3297845267450237</v>
+        <v>-0.3279502788065214</v>
       </c>
       <c r="J4" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K4" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03884178936436566</v>
+        <v>0.03867840854510418</v>
       </c>
       <c r="M4" t="n">
-        <v>9.493518859486938</v>
+        <v>9.484126766219392</v>
       </c>
       <c r="N4" t="n">
-        <v>146.191805023701</v>
+        <v>145.8335524378581</v>
       </c>
       <c r="O4" t="n">
-        <v>12.09098031690156</v>
+        <v>12.07615636027698</v>
       </c>
       <c r="P4" t="n">
-        <v>385.2872896488408</v>
+        <v>385.2688004265712</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34123,28 +34243,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2189661386125413</v>
+        <v>-0.2186881015685586</v>
       </c>
       <c r="J5" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K5" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02203990986240001</v>
+        <v>0.02214074880903105</v>
       </c>
       <c r="M5" t="n">
-        <v>8.53585507336267</v>
+        <v>8.52133452813057</v>
       </c>
       <c r="N5" t="n">
-        <v>116.6369363021084</v>
+        <v>116.2577389809442</v>
       </c>
       <c r="O5" t="n">
-        <v>10.79985816120325</v>
+        <v>10.78228820709891</v>
       </c>
       <c r="P5" t="n">
-        <v>377.1717331627416</v>
+        <v>377.1689405491036</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34201,28 +34321,28 @@
         <v>0.0304</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2357389919615298</v>
+        <v>-0.2335631807599337</v>
       </c>
       <c r="J6" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K6" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02365141677556615</v>
+        <v>0.02337696020751601</v>
       </c>
       <c r="M6" t="n">
-        <v>8.872984500798358</v>
+        <v>8.86146756035766</v>
       </c>
       <c r="N6" t="n">
-        <v>125.6101802147801</v>
+        <v>125.2855266206103</v>
       </c>
       <c r="O6" t="n">
-        <v>11.20759475600274</v>
+        <v>11.19310174261854</v>
       </c>
       <c r="P6" t="n">
-        <v>387.6675475490081</v>
+        <v>387.6455349030047</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34279,28 +34399,28 @@
         <v>0.0302</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2529528529286509</v>
+        <v>-0.2526841145050799</v>
       </c>
       <c r="J7" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K7" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02668689064989549</v>
+        <v>0.02677786471231447</v>
       </c>
       <c r="M7" t="n">
-        <v>8.675967965029631</v>
+        <v>8.675268238026021</v>
       </c>
       <c r="N7" t="n">
-        <v>125.3240865535448</v>
+        <v>125.1075285452634</v>
       </c>
       <c r="O7" t="n">
-        <v>11.19482409658789</v>
+        <v>11.18514767650671</v>
       </c>
       <c r="P7" t="n">
-        <v>392.4337232026308</v>
+        <v>392.4309969428409</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34357,28 +34477,28 @@
         <v>0.0303</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2520233712702838</v>
+        <v>-0.2483874553007189</v>
       </c>
       <c r="J8" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K8" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02613288572280259</v>
+        <v>0.02555682665733983</v>
       </c>
       <c r="M8" t="n">
-        <v>8.662406468295901</v>
+        <v>8.64848014227494</v>
       </c>
       <c r="N8" t="n">
-        <v>127.3409658881404</v>
+        <v>127.0317194904</v>
       </c>
       <c r="O8" t="n">
-        <v>11.28454544446255</v>
+        <v>11.27083490653643</v>
       </c>
       <c r="P8" t="n">
-        <v>392.9296089298381</v>
+        <v>392.8921186949085</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34435,28 +34555,28 @@
         <v>0.0303</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1097520751451212</v>
+        <v>-0.1073741922247862</v>
       </c>
       <c r="J9" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K9" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005777916726210197</v>
+        <v>0.005567345269088309</v>
       </c>
       <c r="M9" t="n">
-        <v>8.326937079888582</v>
+        <v>8.316439609904823</v>
       </c>
       <c r="N9" t="n">
-        <v>112.4830387738136</v>
+        <v>112.1983118600689</v>
       </c>
       <c r="O9" t="n">
-        <v>10.60580212778899</v>
+        <v>10.5923704551941</v>
       </c>
       <c r="P9" t="n">
-        <v>392.4962681550646</v>
+        <v>392.4720810718449</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34513,28 +34633,28 @@
         <v>0.0302</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.06392711683799032</v>
+        <v>-0.06198976382074702</v>
       </c>
       <c r="J10" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K10" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002410344312881119</v>
+        <v>0.002278423395071671</v>
       </c>
       <c r="M10" t="n">
-        <v>7.586730991442398</v>
+        <v>7.587500551736635</v>
       </c>
       <c r="N10" t="n">
-        <v>92.18529408953648</v>
+        <v>92.07045326506727</v>
       </c>
       <c r="O10" t="n">
-        <v>9.601317310116174</v>
+        <v>9.595334974093779</v>
       </c>
       <c r="P10" t="n">
-        <v>393.5856649429577</v>
+        <v>393.5660132672605</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34591,28 +34711,28 @@
         <v>0.0347</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03622891555986375</v>
+        <v>0.03274181680894037</v>
       </c>
       <c r="J11" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K11" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0006153556269744564</v>
+        <v>0.0005044048169207116</v>
       </c>
       <c r="M11" t="n">
-        <v>8.413527011643001</v>
+        <v>8.422654856184971</v>
       </c>
       <c r="N11" t="n">
-        <v>116.6094386236406</v>
+        <v>116.6822792619031</v>
       </c>
       <c r="O11" t="n">
-        <v>10.79858502877301</v>
+        <v>10.80195719589293</v>
       </c>
       <c r="P11" t="n">
-        <v>392.8399270151186</v>
+        <v>392.8751920863613</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34669,28 +34789,28 @@
         <v>0.0349</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1245239291151089</v>
+        <v>-0.1235843795958739</v>
       </c>
       <c r="J12" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K12" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006689230997996343</v>
+        <v>0.006576888678356596</v>
       </c>
       <c r="M12" t="n">
-        <v>8.915403212252762</v>
+        <v>8.952884583272819</v>
       </c>
       <c r="N12" t="n">
-        <v>127.826342057757</v>
+        <v>128.6328317977669</v>
       </c>
       <c r="O12" t="n">
-        <v>11.30603122487095</v>
+        <v>11.3416414948528</v>
       </c>
       <c r="P12" t="n">
-        <v>392.1060031504854</v>
+        <v>392.0967724727312</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34747,28 +34867,28 @@
         <v>0.0307</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1638281749130482</v>
+        <v>-0.1639915069333469</v>
       </c>
       <c r="J13" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K13" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01321152581216245</v>
+        <v>0.01322100769471068</v>
       </c>
       <c r="M13" t="n">
-        <v>8.416201353079378</v>
+        <v>8.448447914953801</v>
       </c>
       <c r="N13" t="n">
-        <v>110.2226447161748</v>
+        <v>110.8383758099296</v>
       </c>
       <c r="O13" t="n">
-        <v>10.49869728662441</v>
+        <v>10.52798061405555</v>
       </c>
       <c r="P13" t="n">
-        <v>391.6243357577554</v>
+        <v>391.6260443866769</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34825,28 +34945,28 @@
         <v>0.0257</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2182986751984927</v>
+        <v>-0.2170425613339458</v>
       </c>
       <c r="J14" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K14" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01631568848180831</v>
+        <v>0.01614628706267285</v>
       </c>
       <c r="M14" t="n">
-        <v>9.912193896300883</v>
+        <v>9.94104555646301</v>
       </c>
       <c r="N14" t="n">
-        <v>154.6923878699561</v>
+        <v>155.2291434278443</v>
       </c>
       <c r="O14" t="n">
-        <v>12.43753946204618</v>
+        <v>12.45909882085556</v>
       </c>
       <c r="P14" t="n">
-        <v>396.57423834744</v>
+        <v>396.5615172331096</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34884,7 +35004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O595"/>
+  <dimension ref="A1:O597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40015,7 +40135,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-36.67998299878895,174.74906051663555</t>
+          <t>-36.67998299878896,174.74906051663555</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -43215,7 +43335,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-36.68066723910145,174.7494136494771</t>
+          <t>-36.680667239101446,174.7494136494771</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -44014,7 +44134,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>-36.68479349969288,174.75108468513605</t>
+          <t>-36.68479349969289,174.75108468513605</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -51270,7 +51390,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>-36.68275271651321,174.7503013197956</t>
+          <t>-36.6827527165132,174.7503013197956</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -55207,7 +55327,7 @@
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>-36.68807842818008,174.75282293474083</t>
+          <t>-36.688078428180084,174.75282293474083</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -56537,7 +56657,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>-36.680701573245564,174.74932900665146</t>
+          <t>-36.68070157324556,174.74932900665146</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -61488,7 +61608,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>-36.68613684678885,174.75169585340768</t>
+          <t>-36.68613684678884,174.75169585340768</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -69908,7 +70028,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>-36.68145051768891,174.74946233408173</t>
+          <t>-36.681450517688916,174.74946233408173</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -72842,7 +72962,7 @@
       </c>
       <c r="N575" t="inlineStr">
         <is>
-          <t>-36.68799390530113,174.75303979633244</t>
+          <t>-36.68799390530112,174.75303979633244</t>
         </is>
       </c>
       <c r="O575" t="inlineStr">
@@ -74287,6 +74407,156 @@
         </is>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>-36.67990769029565,174.7492202687008</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>-36.6806305132581,174.7495041882347</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>-36.68134650039074,174.74976464033466</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>-36.682060319432274,174.75001633806198</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>-36.682745578749824,174.75033739565382</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>-36.683408578672385,174.75061261012542</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>-36.68407717338928,174.7509168060659</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>-36.68475399632091,174.7512244013529</t>
+        </is>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>-36.68542588759976,174.75154941761375</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>-36.68610018573098,174.75181009417742</t>
+        </is>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>-36.686712565721386,174.75223600769365</t>
+        </is>
+      </c>
+      <c r="M596" t="inlineStr">
+        <is>
+          <t>-36.68737724309184,174.75256716842213</t>
+        </is>
+      </c>
+      <c r="N596" t="inlineStr">
+        <is>
+          <t>-36.68800603610484,174.75300867224175</t>
+        </is>
+      </c>
+      <c r="O596" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>-36.67992595979401,174.74918151364503</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>-36.6813997836815,174.74960978308405</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>-36.68208771079659,174.74990719765233</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>-36.682773241106105,174.75019758355333</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>-36.6834554201834,174.75043083354402</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>-36.6841102385984,174.7507998606458</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>-36.68478864387143,174.75110185932894</t>
+        </is>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>-36.68547125210881,174.75138897147278</t>
+        </is>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>-36.68617172862415,174.7515871565201</t>
+        </is>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>-36.68684789422585,174.7518751086834</t>
+        </is>
+      </c>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>-36.68750230551891,174.75224629291577</t>
+        </is>
+      </c>
+      <c r="N597" t="inlineStr">
+        <is>
+          <t>-36.688136216012104,174.75267466680458</t>
+        </is>
+      </c>
+      <c r="O597" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0151/nzd0151.xlsx
+++ b/data/nzd0151/nzd0151.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O597"/>
+  <dimension ref="A1:O598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27697,6 +27697,57 @@
         </is>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>404.19</v>
+      </c>
+      <c r="C598" t="n">
+        <v>390.12</v>
+      </c>
+      <c r="D598" t="n">
+        <v>379.01</v>
+      </c>
+      <c r="E598" t="n">
+        <v>370.53</v>
+      </c>
+      <c r="F598" t="n">
+        <v>382.98</v>
+      </c>
+      <c r="G598" t="n">
+        <v>388.47</v>
+      </c>
+      <c r="H598" t="n">
+        <v>387.76</v>
+      </c>
+      <c r="I598" t="n">
+        <v>393.65</v>
+      </c>
+      <c r="J598" t="n">
+        <v>394.82</v>
+      </c>
+      <c r="K598" t="n">
+        <v>408.32</v>
+      </c>
+      <c r="L598" t="n">
+        <v>401.09</v>
+      </c>
+      <c r="M598" t="n">
+        <v>399.98</v>
+      </c>
+      <c r="N598" t="n">
+        <v>396.25</v>
+      </c>
+      <c r="O598" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27708,7 +27759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B612"/>
+  <dimension ref="A1:B613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33836,6 +33887,16 @@
       </c>
       <c r="B612" t="n">
         <v>-0.87</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -34009,28 +34070,28 @@
         <v>0.0151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4690859155368138</v>
+        <v>-0.4691393795353669</v>
       </c>
       <c r="J2" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K2" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03996595474013287</v>
+        <v>0.04014777329116825</v>
       </c>
       <c r="M2" t="n">
-        <v>13.65835263777703</v>
+        <v>13.62753717305149</v>
       </c>
       <c r="N2" t="n">
-        <v>294.1059788107585</v>
+        <v>293.4360688666356</v>
       </c>
       <c r="O2" t="n">
-        <v>17.14951832591104</v>
+        <v>17.12997574039834</v>
       </c>
       <c r="P2" t="n">
-        <v>416.4193828474172</v>
+        <v>416.4199178391125</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34087,28 +34148,28 @@
         <v>0.0208</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3591496866320544</v>
+        <v>-0.357445729688765</v>
       </c>
       <c r="J3" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K3" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03329025120291285</v>
+        <v>0.03312024262923063</v>
       </c>
       <c r="M3" t="n">
-        <v>11.30699666275157</v>
+        <v>11.29146528848269</v>
       </c>
       <c r="N3" t="n">
-        <v>205.430528169167</v>
+        <v>205.0268888867678</v>
       </c>
       <c r="O3" t="n">
-        <v>14.33284787364908</v>
+        <v>14.3187600331442</v>
       </c>
       <c r="P3" t="n">
-        <v>395.2593892875824</v>
+        <v>395.2423142849235</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34165,28 +34226,28 @@
         <v>0.0258</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3279502788065214</v>
+        <v>-0.3270584255866923</v>
       </c>
       <c r="J4" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K4" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03867840854510418</v>
+        <v>0.03863147773590281</v>
       </c>
       <c r="M4" t="n">
-        <v>9.484126766219392</v>
+        <v>9.46820413928757</v>
       </c>
       <c r="N4" t="n">
-        <v>145.8335524378581</v>
+        <v>145.5354381510451</v>
       </c>
       <c r="O4" t="n">
-        <v>12.07615636027698</v>
+        <v>12.06380695100204</v>
       </c>
       <c r="P4" t="n">
-        <v>385.2688004265712</v>
+        <v>385.2597797344919</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34243,28 +34304,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2186881015685586</v>
+        <v>-0.2190777675451515</v>
       </c>
       <c r="J5" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K5" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02214074880903105</v>
+        <v>0.02230579196044968</v>
       </c>
       <c r="M5" t="n">
-        <v>8.52133452813057</v>
+        <v>8.505773031512225</v>
       </c>
       <c r="N5" t="n">
-        <v>116.2577389809442</v>
+        <v>116.0165840012331</v>
       </c>
       <c r="O5" t="n">
-        <v>10.78228820709891</v>
+        <v>10.77109947968326</v>
       </c>
       <c r="P5" t="n">
-        <v>377.1689405491036</v>
+        <v>377.1728928742065</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34321,28 +34382,28 @@
         <v>0.0304</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2335631807599337</v>
+        <v>-0.2330251202352799</v>
       </c>
       <c r="J6" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K6" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02337696020751601</v>
+        <v>0.02336444363132772</v>
       </c>
       <c r="M6" t="n">
-        <v>8.86146756035766</v>
+        <v>8.845334008365848</v>
       </c>
       <c r="N6" t="n">
-        <v>125.2855266206103</v>
+        <v>125.0250970366352</v>
       </c>
       <c r="O6" t="n">
-        <v>11.19310174261854</v>
+        <v>11.1814622047671</v>
       </c>
       <c r="P6" t="n">
-        <v>387.6455349030047</v>
+        <v>387.6400750930129</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34399,28 +34460,28 @@
         <v>0.0302</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2526841145050799</v>
+        <v>-0.2516884205152463</v>
       </c>
       <c r="J7" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K7" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02677786471231447</v>
+        <v>0.02667344936185145</v>
       </c>
       <c r="M7" t="n">
-        <v>8.675268238026021</v>
+        <v>8.662369570203433</v>
       </c>
       <c r="N7" t="n">
-        <v>125.1075285452634</v>
+        <v>124.8635020314424</v>
       </c>
       <c r="O7" t="n">
-        <v>11.18514767650671</v>
+        <v>11.17423384538924</v>
       </c>
       <c r="P7" t="n">
-        <v>392.4309969428409</v>
+        <v>392.420739240296</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34477,28 +34538,28 @@
         <v>0.0303</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2483874553007189</v>
+        <v>-0.2478944994345942</v>
       </c>
       <c r="J8" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K8" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02555682665733983</v>
+        <v>0.02555494034503614</v>
       </c>
       <c r="M8" t="n">
-        <v>8.64848014227494</v>
+        <v>8.633130617231231</v>
       </c>
       <c r="N8" t="n">
-        <v>127.0317194904</v>
+        <v>126.7731424109604</v>
       </c>
       <c r="O8" t="n">
-        <v>11.27083490653643</v>
+        <v>11.25935799284135</v>
       </c>
       <c r="P8" t="n">
-        <v>392.8921186949085</v>
+        <v>392.8870239064232</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34555,28 +34616,28 @@
         <v>0.0303</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1073741922247862</v>
+        <v>-0.1058490277211577</v>
       </c>
       <c r="J9" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K9" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005567345269088309</v>
+        <v>0.005431192838642462</v>
       </c>
       <c r="M9" t="n">
-        <v>8.316439609904823</v>
+        <v>8.307362172538177</v>
       </c>
       <c r="N9" t="n">
-        <v>112.1983118600689</v>
+        <v>112.0005600776696</v>
       </c>
       <c r="O9" t="n">
-        <v>10.5923704551941</v>
+        <v>10.58303170540794</v>
       </c>
       <c r="P9" t="n">
-        <v>392.4720810718449</v>
+        <v>392.4565256995103</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34633,28 +34694,28 @@
         <v>0.0302</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.06198976382074702</v>
+        <v>-0.06089684620819429</v>
       </c>
       <c r="J10" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K10" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002278423395071671</v>
+        <v>0.002207286864237656</v>
       </c>
       <c r="M10" t="n">
-        <v>7.587500551736635</v>
+        <v>7.578231229811797</v>
       </c>
       <c r="N10" t="n">
-        <v>92.07045326506727</v>
+        <v>91.89942223130124</v>
       </c>
       <c r="O10" t="n">
-        <v>9.595334974093779</v>
+        <v>9.586418634260724</v>
       </c>
       <c r="P10" t="n">
-        <v>393.5660132672605</v>
+        <v>393.5548901061027</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34711,28 +34772,28 @@
         <v>0.0347</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03274181680894037</v>
+        <v>0.03852053860037584</v>
       </c>
       <c r="J11" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K11" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0005044048169207116</v>
+        <v>0.0006982558582895315</v>
       </c>
       <c r="M11" t="n">
-        <v>8.422654856184971</v>
+        <v>8.436372000735412</v>
       </c>
       <c r="N11" t="n">
-        <v>116.6822792619031</v>
+        <v>116.8817595248258</v>
       </c>
       <c r="O11" t="n">
-        <v>10.80195719589293</v>
+        <v>10.81118677689114</v>
       </c>
       <c r="P11" t="n">
-        <v>392.8751920863613</v>
+        <v>392.8167341046559</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34789,28 +34850,28 @@
         <v>0.0349</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1235843795958739</v>
+        <v>-0.1186803895746523</v>
       </c>
       <c r="J12" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K12" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006576888678356596</v>
+        <v>0.006079627911782404</v>
       </c>
       <c r="M12" t="n">
-        <v>8.952884583272819</v>
+        <v>8.958579947573098</v>
       </c>
       <c r="N12" t="n">
-        <v>128.6328317977669</v>
+        <v>128.6727155888206</v>
       </c>
       <c r="O12" t="n">
-        <v>11.3416414948528</v>
+        <v>11.3433996486424</v>
       </c>
       <c r="P12" t="n">
-        <v>392.0967724727312</v>
+        <v>392.0481062204676</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34867,28 +34928,28 @@
         <v>0.0307</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1639915069333469</v>
+        <v>-0.1588838324160337</v>
       </c>
       <c r="J13" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K13" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01322100769471068</v>
+        <v>0.01243546224823111</v>
       </c>
       <c r="M13" t="n">
-        <v>8.448447914953801</v>
+        <v>8.456787469178812</v>
       </c>
       <c r="N13" t="n">
-        <v>110.8383758099296</v>
+        <v>110.9380468966005</v>
       </c>
       <c r="O13" t="n">
-        <v>10.52798061405555</v>
+        <v>10.53271317831263</v>
       </c>
       <c r="P13" t="n">
-        <v>391.6260443866769</v>
+        <v>391.5747627184269</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34945,28 +35006,28 @@
         <v>0.0257</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2170425613339458</v>
+        <v>-0.2148267853660512</v>
       </c>
       <c r="J14" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K14" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01614628706267285</v>
+        <v>0.01588548319585359</v>
       </c>
       <c r="M14" t="n">
-        <v>9.94104555646301</v>
+        <v>9.930359138500286</v>
       </c>
       <c r="N14" t="n">
-        <v>155.2291434278443</v>
+        <v>154.9502870617209</v>
       </c>
       <c r="O14" t="n">
-        <v>12.45909882085556</v>
+        <v>12.44790291823169</v>
       </c>
       <c r="P14" t="n">
-        <v>396.5615172331096</v>
+        <v>396.5389052534255</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35004,7 +35065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O597"/>
+  <dimension ref="A1:O598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74557,6 +74618,83 @@
         </is>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>-36.679949995394544,174.74913052689868</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>-36.680653051421544,174.7494486258288</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>-36.681373301379466,174.7496867487086</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>-36.68207765688144,174.74994725735536</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>-36.682762341010424,174.75025267532897</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>-36.683425953179004,174.7505451854989</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>-36.6841037907422,174.7508226655388</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>-36.6847686135823,174.75117270285077</t>
+        </is>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>-36.68544752009878,174.75147290745826</t>
+        </is>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>-36.686072820522206,174.75189536754505</t>
+        </is>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>-36.68673834326517,174.75216726351508</t>
+        </is>
+      </c>
+      <c r="M598" t="inlineStr">
+        <is>
+          <t>-36.687389674782224,174.7525352722963</t>
+        </is>
+      </c>
+      <c r="N598" t="inlineStr">
+        <is>
+          <t>-36.68805624734094,174.75287984458794</t>
+        </is>
+      </c>
+      <c r="O598" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0151/nzd0151.xlsx
+++ b/data/nzd0151/nzd0151.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O598"/>
+  <dimension ref="A1:O601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27748,6 +27748,139 @@
         </is>
       </c>
     </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:23+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr"/>
+      <c r="C599" t="inlineStr"/>
+      <c r="D599" t="inlineStr"/>
+      <c r="E599" t="inlineStr"/>
+      <c r="F599" t="inlineStr"/>
+      <c r="G599" t="inlineStr"/>
+      <c r="H599" t="inlineStr"/>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="n">
+        <v>393.55</v>
+      </c>
+      <c r="L599" t="n">
+        <v>379.26</v>
+      </c>
+      <c r="M599" t="n">
+        <v>379.94</v>
+      </c>
+      <c r="N599" t="n">
+        <v>380.96</v>
+      </c>
+      <c r="O599" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>438.9666666666667</v>
+      </c>
+      <c r="C600" t="n">
+        <v>405.7</v>
+      </c>
+      <c r="D600" t="n">
+        <v>380.12</v>
+      </c>
+      <c r="E600" t="n">
+        <v>367.5933333333333</v>
+      </c>
+      <c r="F600" t="n">
+        <v>378.7933333333333</v>
+      </c>
+      <c r="G600" t="n">
+        <v>382.0433333333333</v>
+      </c>
+      <c r="H600" t="n">
+        <v>380.8033333333333</v>
+      </c>
+      <c r="I600" t="n">
+        <v>382.9333333333333</v>
+      </c>
+      <c r="J600" t="n">
+        <v>384.7633333333333</v>
+      </c>
+      <c r="K600" t="n">
+        <v>390.4933333333333</v>
+      </c>
+      <c r="L600" t="n">
+        <v>388.6033333333333</v>
+      </c>
+      <c r="M600" t="n">
+        <v>381.9833333333333</v>
+      </c>
+      <c r="N600" t="n">
+        <v>386.29</v>
+      </c>
+      <c r="O600" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr"/>
+      <c r="C601" t="n">
+        <v>370.57</v>
+      </c>
+      <c r="D601" t="n">
+        <v>362.03</v>
+      </c>
+      <c r="E601" t="n">
+        <v>357.4866666666667</v>
+      </c>
+      <c r="F601" t="n">
+        <v>369.6966666666667</v>
+      </c>
+      <c r="G601" t="n">
+        <v>374.7166666666667</v>
+      </c>
+      <c r="H601" t="n">
+        <v>379.8266666666667</v>
+      </c>
+      <c r="I601" t="n">
+        <v>380.3266666666667</v>
+      </c>
+      <c r="J601" t="n">
+        <v>382.0566666666667</v>
+      </c>
+      <c r="K601" t="n">
+        <v>380.9566666666667</v>
+      </c>
+      <c r="L601" t="n">
+        <v>380.0366666666667</v>
+      </c>
+      <c r="M601" t="n">
+        <v>375.7366666666667</v>
+      </c>
+      <c r="N601" t="n">
+        <v>378.31</v>
+      </c>
+      <c r="O601" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27759,7 +27892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B613"/>
+  <dimension ref="A1:B616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33897,6 +34030,36 @@
       </c>
       <c r="B613" t="n">
         <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -34070,28 +34233,28 @@
         <v>0.0151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4691393795353669</v>
+        <v>-0.454275011303647</v>
       </c>
       <c r="J2" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04014777329116825</v>
+        <v>0.0375680536976124</v>
       </c>
       <c r="M2" t="n">
-        <v>13.62753717305149</v>
+        <v>13.67192224063209</v>
       </c>
       <c r="N2" t="n">
-        <v>293.4360688666356</v>
+        <v>295.4861669993376</v>
       </c>
       <c r="O2" t="n">
-        <v>17.12997574039834</v>
+        <v>17.18971107957715</v>
       </c>
       <c r="P2" t="n">
-        <v>416.4199178391125</v>
+        <v>416.2705197437598</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34148,28 +34311,28 @@
         <v>0.0208</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.357445729688765</v>
+        <v>-0.3556912662106111</v>
       </c>
       <c r="J3" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03312024262923063</v>
+        <v>0.03288016000142291</v>
       </c>
       <c r="M3" t="n">
-        <v>11.29146528848269</v>
+        <v>11.31803800979596</v>
       </c>
       <c r="N3" t="n">
-        <v>205.0268888867678</v>
+        <v>205.4871632154582</v>
       </c>
       <c r="O3" t="n">
-        <v>14.3187600331442</v>
+        <v>14.33482344556285</v>
       </c>
       <c r="P3" t="n">
-        <v>395.2423142849235</v>
+        <v>395.2247262968943</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34226,28 +34389,28 @@
         <v>0.0258</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3270584255866923</v>
+        <v>-0.3316745092268313</v>
       </c>
       <c r="J4" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03863147773590281</v>
+        <v>0.03988674031669881</v>
       </c>
       <c r="M4" t="n">
-        <v>9.46820413928757</v>
+        <v>9.469128968175115</v>
       </c>
       <c r="N4" t="n">
-        <v>145.5354381510451</v>
+        <v>145.4025346533336</v>
       </c>
       <c r="O4" t="n">
-        <v>12.06380695100204</v>
+        <v>12.05829733641253</v>
       </c>
       <c r="P4" t="n">
-        <v>385.2597797344919</v>
+        <v>385.306733944589</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34304,28 +34467,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2190777675451515</v>
+        <v>-0.2260725658727933</v>
       </c>
       <c r="J5" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02230579196044968</v>
+        <v>0.02382040025491738</v>
       </c>
       <c r="M5" t="n">
-        <v>8.505773031512225</v>
+        <v>8.510458357962564</v>
       </c>
       <c r="N5" t="n">
-        <v>116.0165840012331</v>
+        <v>115.9697486171763</v>
       </c>
       <c r="O5" t="n">
-        <v>10.77109947968326</v>
+        <v>10.7689251375045</v>
       </c>
       <c r="P5" t="n">
-        <v>377.1728928742065</v>
+        <v>377.2442162941534</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34382,28 +34545,28 @@
         <v>0.0304</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2330251202352799</v>
+        <v>-0.2388288230193652</v>
       </c>
       <c r="J6" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02336444363132772</v>
+        <v>0.02465163564534478</v>
       </c>
       <c r="M6" t="n">
-        <v>8.845334008365848</v>
+        <v>8.842137471195503</v>
       </c>
       <c r="N6" t="n">
-        <v>125.0250970366352</v>
+        <v>124.8113325300754</v>
       </c>
       <c r="O6" t="n">
-        <v>11.1814622047671</v>
+        <v>11.17189923558548</v>
       </c>
       <c r="P6" t="n">
-        <v>387.6400750930129</v>
+        <v>387.6992797144983</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34460,28 +34623,28 @@
         <v>0.0302</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2516884205152463</v>
+        <v>-0.2575288730863871</v>
       </c>
       <c r="J7" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K7" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02667344936185145</v>
+        <v>0.02804725084223414</v>
       </c>
       <c r="M7" t="n">
-        <v>8.662369570203433</v>
+        <v>8.659134717123431</v>
       </c>
       <c r="N7" t="n">
-        <v>124.8635020314424</v>
+        <v>124.6357279271788</v>
       </c>
       <c r="O7" t="n">
-        <v>11.17423384538924</v>
+        <v>11.16403725930628</v>
       </c>
       <c r="P7" t="n">
-        <v>392.420739240296</v>
+        <v>392.4812191972324</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34538,28 +34701,28 @@
         <v>0.0303</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2478944994345942</v>
+        <v>-0.2526313908059075</v>
       </c>
       <c r="J8" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02555494034503614</v>
+        <v>0.02668778531280658</v>
       </c>
       <c r="M8" t="n">
-        <v>8.633130617231231</v>
+        <v>8.624071758840513</v>
       </c>
       <c r="N8" t="n">
-        <v>126.7731424109604</v>
+        <v>126.4069973645097</v>
       </c>
       <c r="O8" t="n">
-        <v>11.25935799284135</v>
+        <v>11.24308664755857</v>
       </c>
       <c r="P8" t="n">
-        <v>392.8870239064232</v>
+        <v>392.9362266316459</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34616,28 +34779,28 @@
         <v>0.0303</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1058490277211577</v>
+        <v>-0.1120792326313733</v>
       </c>
       <c r="J9" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K9" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005431192838642462</v>
+        <v>0.006119536067867859</v>
       </c>
       <c r="M9" t="n">
-        <v>8.307362172538177</v>
+        <v>8.306653822630697</v>
       </c>
       <c r="N9" t="n">
-        <v>112.0005600776696</v>
+        <v>111.8142855122604</v>
       </c>
       <c r="O9" t="n">
-        <v>10.58303170540794</v>
+        <v>10.57422741916687</v>
       </c>
       <c r="P9" t="n">
-        <v>392.4565256995103</v>
+        <v>392.5203863919627</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34694,28 +34857,28 @@
         <v>0.0302</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.06089684620819429</v>
+        <v>-0.06744399624313034</v>
       </c>
       <c r="J10" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002207286864237656</v>
+        <v>0.002718764099174265</v>
       </c>
       <c r="M10" t="n">
-        <v>7.578231229811797</v>
+        <v>7.579619964587732</v>
       </c>
       <c r="N10" t="n">
-        <v>91.89942223130124</v>
+        <v>91.82823719061065</v>
       </c>
       <c r="O10" t="n">
-        <v>9.586418634260724</v>
+        <v>9.582705108194171</v>
       </c>
       <c r="P10" t="n">
-        <v>393.5548901061027</v>
+        <v>393.6218591877972</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34772,28 +34935,28 @@
         <v>0.0347</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03852053860037584</v>
+        <v>0.03206909616974029</v>
       </c>
       <c r="J11" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0006982558582895315</v>
+        <v>0.0004885508852053855</v>
       </c>
       <c r="M11" t="n">
-        <v>8.436372000735412</v>
+        <v>8.416419613032165</v>
       </c>
       <c r="N11" t="n">
-        <v>116.8817595248258</v>
+        <v>116.5153364667529</v>
       </c>
       <c r="O11" t="n">
-        <v>10.81118677689114</v>
+        <v>10.79422699718479</v>
       </c>
       <c r="P11" t="n">
-        <v>392.8167341046559</v>
+        <v>392.8823375508939</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34850,28 +35013,28 @@
         <v>0.0349</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1186803895746523</v>
+        <v>-0.1262481568430083</v>
       </c>
       <c r="J12" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K12" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006079627911782404</v>
+        <v>0.006942945260430933</v>
       </c>
       <c r="M12" t="n">
-        <v>8.958579947573098</v>
+        <v>8.943051344243152</v>
       </c>
       <c r="N12" t="n">
-        <v>128.6727155888206</v>
+        <v>128.222540418727</v>
       </c>
       <c r="O12" t="n">
-        <v>11.3433996486424</v>
+        <v>11.32353921787384</v>
       </c>
       <c r="P12" t="n">
-        <v>392.0481062204676</v>
+        <v>392.1234882352109</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34928,28 +35091,28 @@
         <v>0.0307</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1588838324160337</v>
+        <v>-0.1688072508637819</v>
       </c>
       <c r="J13" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K13" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01243546224823111</v>
+        <v>0.0141336581554663</v>
       </c>
       <c r="M13" t="n">
-        <v>8.456787469178812</v>
+        <v>8.455531409715157</v>
       </c>
       <c r="N13" t="n">
-        <v>110.9380468966005</v>
+        <v>110.6983854774349</v>
       </c>
       <c r="O13" t="n">
-        <v>10.53271317831263</v>
+        <v>10.52133002416686</v>
       </c>
       <c r="P13" t="n">
-        <v>391.5747627184269</v>
+        <v>391.6748147079262</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35006,28 +35169,28 @@
         <v>0.0257</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2148267853660512</v>
+        <v>-0.226160710344898</v>
       </c>
       <c r="J14" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K14" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01588548319585359</v>
+        <v>0.01773440017983652</v>
       </c>
       <c r="M14" t="n">
-        <v>9.930359138500286</v>
+        <v>9.927619640458255</v>
       </c>
       <c r="N14" t="n">
-        <v>154.9502870617209</v>
+        <v>154.5439991219241</v>
       </c>
       <c r="O14" t="n">
-        <v>12.44790291823169</v>
+        <v>12.43157267291327</v>
       </c>
       <c r="P14" t="n">
-        <v>396.5389052534255</v>
+        <v>396.6550305186841</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35065,7 +35228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O598"/>
+  <dimension ref="A1:O601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74695,6 +74858,197 @@
         </is>
       </c>
     </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:23+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr"/>
+      <c r="C599" t="inlineStr"/>
+      <c r="D599" t="inlineStr"/>
+      <c r="E599" t="inlineStr"/>
+      <c r="F599" t="inlineStr"/>
+      <c r="G599" t="inlineStr"/>
+      <c r="H599" t="inlineStr"/>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>-36.68612209119849,174.7517418338584</t>
+        </is>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>-36.68682138143578,174.75194581428855</t>
+        </is>
+      </c>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>-36.68746834756095,174.75233341993757</t>
+        </is>
+      </c>
+      <c r="N599" t="inlineStr">
+        <is>
+          <t>-36.68811627294903,174.7527258353844</t>
+        </is>
+      </c>
+      <c r="O599" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>-36.6797916847663,174.74946634999367</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>-36.68058989585688,174.7496043204003</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>-36.68136937151501,174.7496981700734</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>-36.68208553021523,174.74991588615774</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>-36.68277134201169,174.75020718205587</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>-36.68344360227069,174.75047669511878</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>-36.68412455720208,174.75074921828437</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>-36.68480060431253,174.751059557317</t>
+        </is>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>-36.68547754083301,174.75136672930745</t>
+        </is>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>-36.68613228779142,174.75171005987895</t>
+        </is>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>-36.68678584079275,174.75204059556427</t>
+        </is>
+      </c>
+      <c r="M600" t="inlineStr">
+        <is>
+          <t>-36.68746032588399,174.75235400137672</t>
+        </is>
+      </c>
+      <c r="N600" t="inlineStr">
+        <is>
+          <t>-36.68809534841305,174.75277952207384</t>
+        </is>
+      </c>
+      <c r="O600" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr"/>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>-36.68073229962019,174.74925325775274</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>-36.68143341755137,174.74951203254656</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>-36.68211262657553,174.74980792075897</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>-36.68279089906452,174.75010833556613</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>-36.6834637229204,174.75039861320346</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>-36.68412747266223,174.75073890680738</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>-36.68480838555666,174.75103203636684</t>
+        </is>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>-36.685485620643554,174.7513381523427</t>
+        </is>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>-36.68616410066335,174.75161092639325</t>
+        </is>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>-36.68681842711469,174.75195369300664</t>
+        </is>
+      </c>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>-36.68748484891165,174.75229108192252</t>
+        </is>
+      </c>
+      <c r="N601" t="inlineStr">
+        <is>
+          <t>-36.68812667632122,174.75269914311679</t>
+        </is>
+      </c>
+      <c r="O601" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0151/nzd0151.xlsx
+++ b/data/nzd0151/nzd0151.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O601"/>
+  <dimension ref="A1:O605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27838,7 +27838,9 @@
           <t>2025-07-25 22:05:30+00:00</t>
         </is>
       </c>
-      <c r="B601" t="inlineStr"/>
+      <c r="B601" t="n">
+        <v>375.7433333333333</v>
+      </c>
       <c r="C601" t="n">
         <v>370.57</v>
       </c>
@@ -27876,6 +27878,210 @@
         <v>378.31</v>
       </c>
       <c r="O601" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>404.0866666666667</v>
+      </c>
+      <c r="C602" t="n">
+        <v>370.92</v>
+      </c>
+      <c r="D602" t="n">
+        <v>357.17</v>
+      </c>
+      <c r="E602" t="n">
+        <v>352.8233333333333</v>
+      </c>
+      <c r="F602" t="n">
+        <v>364.1933333333333</v>
+      </c>
+      <c r="G602" t="n">
+        <v>371.5033333333333</v>
+      </c>
+      <c r="H602" t="n">
+        <v>372.4533333333333</v>
+      </c>
+      <c r="I602" t="n">
+        <v>376.4633333333333</v>
+      </c>
+      <c r="J602" t="n">
+        <v>384.5533333333333</v>
+      </c>
+      <c r="K602" t="n">
+        <v>383.9833333333333</v>
+      </c>
+      <c r="L602" t="n">
+        <v>383.0433333333333</v>
+      </c>
+      <c r="M602" t="n">
+        <v>378.1833333333333</v>
+      </c>
+      <c r="N602" t="n">
+        <v>388.07</v>
+      </c>
+      <c r="O602" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>416.64</v>
+      </c>
+      <c r="C603" t="n">
+        <v>389.16</v>
+      </c>
+      <c r="D603" t="n">
+        <v>366.52</v>
+      </c>
+      <c r="E603" t="n">
+        <v>358.75</v>
+      </c>
+      <c r="F603" t="n">
+        <v>368.03</v>
+      </c>
+      <c r="G603" t="n">
+        <v>374.07</v>
+      </c>
+      <c r="H603" t="n">
+        <v>372.16</v>
+      </c>
+      <c r="I603" t="n">
+        <v>379.87</v>
+      </c>
+      <c r="J603" t="n">
+        <v>394.2</v>
+      </c>
+      <c r="K603" t="n">
+        <v>382.63</v>
+      </c>
+      <c r="L603" t="n">
+        <v>382.73</v>
+      </c>
+      <c r="M603" t="n">
+        <v>381.86</v>
+      </c>
+      <c r="N603" t="n">
+        <v>385.78</v>
+      </c>
+      <c r="O603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>390.3</v>
+      </c>
+      <c r="C604" t="n">
+        <v>373.44</v>
+      </c>
+      <c r="D604" t="n">
+        <v>361.05</v>
+      </c>
+      <c r="E604" t="n">
+        <v>354.58</v>
+      </c>
+      <c r="F604" t="n">
+        <v>367.66</v>
+      </c>
+      <c r="G604" t="n">
+        <v>372.32</v>
+      </c>
+      <c r="H604" t="n">
+        <v>376.37</v>
+      </c>
+      <c r="I604" t="n">
+        <v>377</v>
+      </c>
+      <c r="J604" t="n">
+        <v>382.82</v>
+      </c>
+      <c r="K604" t="n">
+        <v>385.25</v>
+      </c>
+      <c r="L604" t="n">
+        <v>381.53</v>
+      </c>
+      <c r="M604" t="n">
+        <v>379.85</v>
+      </c>
+      <c r="N604" t="n">
+        <v>386.54</v>
+      </c>
+      <c r="O604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>385.4633333333333</v>
+      </c>
+      <c r="C605" t="n">
+        <v>380.74</v>
+      </c>
+      <c r="D605" t="n">
+        <v>368.95</v>
+      </c>
+      <c r="E605" t="n">
+        <v>364.2266666666667</v>
+      </c>
+      <c r="F605" t="n">
+        <v>375.5966666666667</v>
+      </c>
+      <c r="G605" t="n">
+        <v>383.8766666666667</v>
+      </c>
+      <c r="H605" t="n">
+        <v>383.1966666666667</v>
+      </c>
+      <c r="I605" t="n">
+        <v>387.5366666666667</v>
+      </c>
+      <c r="J605" t="n">
+        <v>388.2666666666667</v>
+      </c>
+      <c r="K605" t="n">
+        <v>398.9766666666667</v>
+      </c>
+      <c r="L605" t="n">
+        <v>392.6266666666667</v>
+      </c>
+      <c r="M605" t="n">
+        <v>389.7166666666667</v>
+      </c>
+      <c r="N605" t="n">
+        <v>387.8</v>
+      </c>
+      <c r="O605" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -27892,7 +28098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B616"/>
+  <dimension ref="A1:B620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34060,6 +34266,46 @@
       </c>
       <c r="B616" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -34233,28 +34479,28 @@
         <v>0.0151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.454275011303647</v>
+        <v>-0.4751626172605175</v>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K2" t="n">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0375680536976124</v>
+        <v>0.04137746759439498</v>
       </c>
       <c r="M2" t="n">
-        <v>13.67192224063209</v>
+        <v>13.68854262579961</v>
       </c>
       <c r="N2" t="n">
-        <v>295.4861669993376</v>
+        <v>295.583397396803</v>
       </c>
       <c r="O2" t="n">
-        <v>17.18971107957715</v>
+        <v>17.19253900378891</v>
       </c>
       <c r="P2" t="n">
-        <v>416.2705197437598</v>
+        <v>416.4809257959377</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34311,28 +34557,28 @@
         <v>0.0208</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3556912662106111</v>
+        <v>-0.3676501678003651</v>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K3" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03288016000142291</v>
+        <v>0.03549307247807154</v>
       </c>
       <c r="M3" t="n">
-        <v>11.31803800979596</v>
+        <v>11.29923773791103</v>
       </c>
       <c r="N3" t="n">
-        <v>205.4871632154582</v>
+        <v>204.6308898230212</v>
       </c>
       <c r="O3" t="n">
-        <v>14.33482344556285</v>
+        <v>14.30492536936216</v>
       </c>
       <c r="P3" t="n">
-        <v>395.2247262968943</v>
+        <v>395.3453878243016</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34389,28 +34635,28 @@
         <v>0.0258</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3316745092268313</v>
+        <v>-0.3526450210677504</v>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K4" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03988674031669881</v>
+        <v>0.04510133936367389</v>
       </c>
       <c r="M4" t="n">
-        <v>9.469128968175115</v>
+        <v>9.510817582002472</v>
       </c>
       <c r="N4" t="n">
-        <v>145.4025346533336</v>
+        <v>145.8014479377273</v>
       </c>
       <c r="O4" t="n">
-        <v>12.05829733641253</v>
+        <v>12.07482703552011</v>
       </c>
       <c r="P4" t="n">
-        <v>385.306733944589</v>
+        <v>385.5202845274866</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34467,28 +34713,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2260725658727933</v>
+        <v>-0.2471498530832495</v>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K5" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02382040025491738</v>
+        <v>0.02837731487982276</v>
       </c>
       <c r="M5" t="n">
-        <v>8.510458357962564</v>
+        <v>8.559670336880824</v>
       </c>
       <c r="N5" t="n">
-        <v>115.9697486171763</v>
+        <v>116.7032657736051</v>
       </c>
       <c r="O5" t="n">
-        <v>10.7689251375045</v>
+        <v>10.80292857393795</v>
       </c>
       <c r="P5" t="n">
-        <v>377.2442162941534</v>
+        <v>377.4595052972018</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34545,28 +34791,28 @@
         <v>0.0304</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2388288230193652</v>
+        <v>-0.2583322459053552</v>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K6" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02465163564534478</v>
+        <v>0.02885142711011568</v>
       </c>
       <c r="M6" t="n">
-        <v>8.842137471195503</v>
+        <v>8.882385327236401</v>
       </c>
       <c r="N6" t="n">
-        <v>124.8113325300754</v>
+        <v>125.2133395856895</v>
       </c>
       <c r="O6" t="n">
-        <v>11.17189923558548</v>
+        <v>11.1898766564109</v>
       </c>
       <c r="P6" t="n">
-        <v>387.6992797144983</v>
+        <v>387.8985658580533</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34623,28 +34869,28 @@
         <v>0.0302</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2575288730863871</v>
+        <v>-0.2732843812220536</v>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K7" t="n">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02804725084223414</v>
+        <v>0.03169750582428643</v>
       </c>
       <c r="M7" t="n">
-        <v>8.659134717123431</v>
+        <v>8.676041337622156</v>
       </c>
       <c r="N7" t="n">
-        <v>124.6357279271788</v>
+        <v>124.6737890877525</v>
       </c>
       <c r="O7" t="n">
-        <v>11.16403725930628</v>
+        <v>11.16574176164542</v>
       </c>
       <c r="P7" t="n">
-        <v>392.4812191972324</v>
+        <v>392.6446453066404</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34701,28 +34947,28 @@
         <v>0.0303</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2526313908059075</v>
+        <v>-0.2682357408842316</v>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K8" t="n">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02668778531280658</v>
+        <v>0.03020427090526079</v>
       </c>
       <c r="M8" t="n">
-        <v>8.624071758840513</v>
+        <v>8.640557370631146</v>
       </c>
       <c r="N8" t="n">
-        <v>126.4069973645097</v>
+        <v>126.3888033680774</v>
       </c>
       <c r="O8" t="n">
-        <v>11.24308664755857</v>
+        <v>11.24227749915814</v>
       </c>
       <c r="P8" t="n">
-        <v>392.9362266316459</v>
+        <v>393.0986147039222</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34779,28 +35025,28 @@
         <v>0.0303</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1120792326313733</v>
+        <v>-0.1262676067507569</v>
       </c>
       <c r="J9" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K9" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006119536067867859</v>
+        <v>0.007817369765837356</v>
       </c>
       <c r="M9" t="n">
-        <v>8.306653822630697</v>
+        <v>8.314502645006103</v>
       </c>
       <c r="N9" t="n">
-        <v>111.8142855122604</v>
+        <v>111.7650104806615</v>
       </c>
       <c r="O9" t="n">
-        <v>10.57422741916687</v>
+        <v>10.57189720346644</v>
       </c>
       <c r="P9" t="n">
-        <v>392.5203863919627</v>
+        <v>392.6660914312426</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34857,28 +35103,28 @@
         <v>0.0302</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.06744399624313034</v>
+        <v>-0.07405675212115731</v>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K10" t="n">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002718764099174265</v>
+        <v>0.00331682836901992</v>
       </c>
       <c r="M10" t="n">
-        <v>7.579619964587732</v>
+        <v>7.560478678538112</v>
       </c>
       <c r="N10" t="n">
-        <v>91.82823719061065</v>
+        <v>91.39517175723466</v>
       </c>
       <c r="O10" t="n">
-        <v>9.582705108194171</v>
+        <v>9.56008220452286</v>
       </c>
       <c r="P10" t="n">
-        <v>393.6218591877972</v>
+        <v>393.6896489674237</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34935,28 +35181,28 @@
         <v>0.0347</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03206909616974029</v>
+        <v>0.02284832570522438</v>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K11" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004885508852053855</v>
+        <v>0.0002507062834086193</v>
       </c>
       <c r="M11" t="n">
-        <v>8.416419613032165</v>
+        <v>8.416012528531775</v>
       </c>
       <c r="N11" t="n">
-        <v>116.5153364667529</v>
+        <v>116.1999035636901</v>
       </c>
       <c r="O11" t="n">
-        <v>10.79422699718479</v>
+        <v>10.77960590947972</v>
       </c>
       <c r="P11" t="n">
-        <v>392.8823375508939</v>
+        <v>392.9762328450778</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35013,28 +35259,28 @@
         <v>0.0349</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1262481568430083</v>
+        <v>-0.1322773935927877</v>
       </c>
       <c r="J12" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K12" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006942945260430933</v>
+        <v>0.007727697839824188</v>
       </c>
       <c r="M12" t="n">
-        <v>8.943051344243152</v>
+        <v>8.916814395254866</v>
       </c>
       <c r="N12" t="n">
-        <v>128.222540418727</v>
+        <v>127.4388325785449</v>
       </c>
       <c r="O12" t="n">
-        <v>11.32353921787384</v>
+        <v>11.28888092675908</v>
       </c>
       <c r="P12" t="n">
-        <v>392.1234882352109</v>
+        <v>392.1837195313381</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35091,28 +35337,28 @@
         <v>0.0307</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1688072508637819</v>
+        <v>-0.176502116485687</v>
       </c>
       <c r="J13" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K13" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0141336581554663</v>
+        <v>0.01563719587945722</v>
       </c>
       <c r="M13" t="n">
-        <v>8.455531409715157</v>
+        <v>8.436248463881446</v>
       </c>
       <c r="N13" t="n">
-        <v>110.6983854774349</v>
+        <v>110.126066448267</v>
       </c>
       <c r="O13" t="n">
-        <v>10.52133002416686</v>
+        <v>10.49409674284867</v>
       </c>
       <c r="P13" t="n">
-        <v>391.6748147079262</v>
+        <v>391.7525903776861</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35169,28 +35415,28 @@
         <v>0.0257</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.226160710344898</v>
+        <v>-0.2322309269330872</v>
       </c>
       <c r="J14" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K14" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01773440017983652</v>
+        <v>0.01898214138258492</v>
       </c>
       <c r="M14" t="n">
-        <v>9.927619640458255</v>
+        <v>9.875153962160224</v>
       </c>
       <c r="N14" t="n">
-        <v>154.5439991219241</v>
+        <v>153.3367175243107</v>
       </c>
       <c r="O14" t="n">
-        <v>12.43157267291327</v>
+        <v>12.38292039562197</v>
       </c>
       <c r="P14" t="n">
-        <v>396.6550305186841</v>
+        <v>396.7174048583219</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35228,7 +35474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O601"/>
+  <dimension ref="A1:O605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74982,7 +75228,11 @@
           <t>2025-07-25 22:05:30+00:00</t>
         </is>
       </c>
-      <c r="B601" t="inlineStr"/>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>-36.68007948986432,174.74885582880864</t>
+        </is>
+      </c>
       <c r="C601" t="inlineStr">
         <is>
           <t>-36.68073229962019,174.74925325775274</t>
@@ -75044,6 +75294,314 @@
         </is>
       </c>
       <c r="O601" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>-36.67995046578803,174.74912952905166</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>-36.68073088085722,174.74925675539455</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>-36.68145062390087,174.74946202539553</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>-36.68212512911837,174.7497581042438</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>-36.68280273071976,174.75004853504393</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>-36.68347254742972,174.75036436798243</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>-36.68414948286562,174.75066106040904</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>-36.68481991810525,174.75099124763335</t>
+        </is>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>-36.6854781677151,174.75136451212938</t>
+        </is>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>-36.68615400417165,174.75164238855027</t>
+        </is>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>-36.686806990210286,174.75198419344594</t>
+        </is>
+      </c>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>-36.6874752438449,174.7523157259399</t>
+        </is>
+      </c>
+      <c r="N602" t="inlineStr">
+        <is>
+          <t>-36.68808836047647,174.7527974512055</t>
+        </is>
+      </c>
+      <c r="O602" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>-36.679893320507226,174.74925075127723</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>-36.68065694290045,174.74943903231647</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>-36.6814175211321,174.7495582325484</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>-36.68210923953575,174.74982141643815</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>-36.68279448224609,174.75009022517384</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>-36.683465498807905,174.750391721531</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>-36.684150358496545,174.7506579634447</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>-36.684809748766305,174.751027214921</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>-36.685449370899136,174.75146636150913</t>
+        </is>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>-36.68615851868325,174.75162832067056</t>
+        </is>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>-36.68680818208316,174.75198101490838</t>
+        </is>
+      </c>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>-36.68746081006362,174.752352759104</t>
+        </is>
+      </c>
+      <c r="N603" t="inlineStr">
+        <is>
+          <t>-36.68809735057418,174.75277438507482</t>
+        </is>
+      </c>
+      <c r="O603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>-36.68001322531116,174.74899639683767</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>-36.68072066576088,174.74928193841166</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>-36.68143688714612,174.7495019488019</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>-36.68212041944237,174.74977687000953</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>-36.682795277712046,174.75008620466647</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>-36.68347030468709,174.7503730713848</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>-36.68413779119506,174.75070241191483</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>-36.684818316086805,174.75099691371358</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>-36.68548334197847,174.75134621161047</t>
+        </is>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>-36.686149778765234,174.75165555552974</t>
+        </is>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>-36.686812746701925,174.75196884178476</t>
+        </is>
+      </c>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>-36.687468700881055,174.75233251341407</t>
+        </is>
+      </c>
+      <c r="N604" t="inlineStr">
+        <is>
+          <t>-36.688094366961444,174.75278204021052</t>
+        </is>
+      </c>
+      <c r="O604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-36.68003524270165,174.74894969106916</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-36.680691074381244,174.7493548891766</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>-36.68140891794022,174.74958323610468</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>-36.68209455638814,174.7498799214394</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>-36.68277821457996,174.75017244634054</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>-36.683438567523375,174.75049623335295</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>-36.68411741282845,174.7507744866784</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>-36.68478686273958,174.7511081588786</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>-36.68546708284164,174.75140371746323</t>
+        </is>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>-36.68610398861184,174.75179824391174</t>
+        </is>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>-36.68677053661171,174.7520814093075</t>
+        </is>
+      </c>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>-36.68742996648804,174.75243189520125</t>
+        </is>
+      </c>
+      <c r="N605" t="inlineStr">
+        <is>
+          <t>-36.68808942044454,174.7527947316183</t>
+        </is>
+      </c>
+      <c r="O605" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0151/nzd0151.xlsx
+++ b/data/nzd0151/nzd0151.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O605"/>
+  <dimension ref="A1:O607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28087,6 +28087,106 @@
         </is>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>396.6366666666667</v>
+      </c>
+      <c r="C606" t="n">
+        <v>385.48</v>
+      </c>
+      <c r="D606" t="n">
+        <v>373.58</v>
+      </c>
+      <c r="E606" t="n">
+        <v>363.0733333333333</v>
+      </c>
+      <c r="F606" t="n">
+        <v>378.3833333333333</v>
+      </c>
+      <c r="G606" t="n">
+        <v>382.8833333333333</v>
+      </c>
+      <c r="H606" t="n">
+        <v>383.1733333333333</v>
+      </c>
+      <c r="I606" t="n">
+        <v>384.6933333333333</v>
+      </c>
+      <c r="J606" t="n">
+        <v>386.6633333333333</v>
+      </c>
+      <c r="K606" t="n">
+        <v>389.9233333333333</v>
+      </c>
+      <c r="L606" t="n">
+        <v>391.5433333333333</v>
+      </c>
+      <c r="M606" t="n">
+        <v>385.8633333333333</v>
+      </c>
+      <c r="N606" t="n">
+        <v>396.76</v>
+      </c>
+      <c r="O606" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>409.84</v>
+      </c>
+      <c r="C607" t="n">
+        <v>410.11</v>
+      </c>
+      <c r="D607" t="inlineStr"/>
+      <c r="E607" t="n">
+        <v>389.18</v>
+      </c>
+      <c r="F607" t="n">
+        <v>389.31</v>
+      </c>
+      <c r="G607" t="n">
+        <v>390.91</v>
+      </c>
+      <c r="H607" t="n">
+        <v>388.75</v>
+      </c>
+      <c r="I607" t="n">
+        <v>394.16</v>
+      </c>
+      <c r="J607" t="n">
+        <v>388.79</v>
+      </c>
+      <c r="K607" t="n">
+        <v>399.32</v>
+      </c>
+      <c r="L607" t="n">
+        <v>396.24</v>
+      </c>
+      <c r="M607" t="n">
+        <v>396.65</v>
+      </c>
+      <c r="N607" t="n">
+        <v>404.36</v>
+      </c>
+      <c r="O607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28098,7 +28198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B620"/>
+  <dimension ref="A1:B622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34306,6 +34406,26 @@
       </c>
       <c r="B620" t="n">
         <v>0.53</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
@@ -34479,28 +34599,28 @@
         <v>0.0151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4751626172605175</v>
+        <v>-0.475878471954172</v>
       </c>
       <c r="J2" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K2" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04137746759439498</v>
+        <v>0.04182011475056346</v>
       </c>
       <c r="M2" t="n">
-        <v>13.68854262579961</v>
+        <v>13.65701804294343</v>
       </c>
       <c r="N2" t="n">
-        <v>295.583397396803</v>
+        <v>294.4598990674548</v>
       </c>
       <c r="O2" t="n">
-        <v>17.19253900378891</v>
+        <v>17.15983388810786</v>
       </c>
       <c r="P2" t="n">
-        <v>416.4809257959377</v>
+        <v>416.4881057572783</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34557,28 +34677,28 @@
         <v>0.0208</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3676501678003651</v>
+        <v>-0.3580173106353274</v>
       </c>
       <c r="J3" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K3" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03549307247807154</v>
+        <v>0.03380136632923925</v>
       </c>
       <c r="M3" t="n">
-        <v>11.29923773791103</v>
+        <v>11.30289008806644</v>
       </c>
       <c r="N3" t="n">
-        <v>204.6308898230212</v>
+        <v>205.0088751265983</v>
       </c>
       <c r="O3" t="n">
-        <v>14.30492536936216</v>
+        <v>14.31813099278667</v>
       </c>
       <c r="P3" t="n">
-        <v>395.3453878243016</v>
+        <v>395.2477361566459</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34635,28 +34755,28 @@
         <v>0.0258</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3526450210677504</v>
+        <v>-0.3537383449204768</v>
       </c>
       <c r="J4" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K4" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04510133936367389</v>
+        <v>0.04554452194212832</v>
       </c>
       <c r="M4" t="n">
-        <v>9.510817582002472</v>
+        <v>9.497296350648863</v>
       </c>
       <c r="N4" t="n">
-        <v>145.8014479377273</v>
+        <v>145.5136035016755</v>
       </c>
       <c r="O4" t="n">
-        <v>12.07482703552011</v>
+        <v>12.06290195192167</v>
       </c>
       <c r="P4" t="n">
-        <v>385.5202845274866</v>
+        <v>385.5314485332171</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34713,28 +34833,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2471498530832495</v>
+        <v>-0.2432489529401825</v>
       </c>
       <c r="J5" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K5" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02837731487982276</v>
+        <v>0.0275404660266646</v>
       </c>
       <c r="M5" t="n">
-        <v>8.559670336880824</v>
+        <v>8.577142311476621</v>
       </c>
       <c r="N5" t="n">
-        <v>116.7032657736051</v>
+        <v>117.0304446561746</v>
       </c>
       <c r="O5" t="n">
-        <v>10.80292857393795</v>
+        <v>10.81806103958443</v>
       </c>
       <c r="P5" t="n">
-        <v>377.4595052972018</v>
+        <v>377.4193905354611</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34791,28 +34911,28 @@
         <v>0.0304</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2583322459053552</v>
+        <v>-0.256271843748814</v>
       </c>
       <c r="J6" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K6" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02885142711011568</v>
+        <v>0.02859427424262984</v>
       </c>
       <c r="M6" t="n">
-        <v>8.882385327236401</v>
+        <v>8.867225278109091</v>
       </c>
       <c r="N6" t="n">
-        <v>125.2133395856895</v>
+        <v>124.8471106685658</v>
       </c>
       <c r="O6" t="n">
-        <v>11.1898766564109</v>
+        <v>11.17350037672017</v>
       </c>
       <c r="P6" t="n">
-        <v>387.8985658580533</v>
+        <v>387.877381307058</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34869,28 +34989,28 @@
         <v>0.0302</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2732843812220536</v>
+        <v>-0.2722455264364714</v>
       </c>
       <c r="J7" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K7" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03169750582428643</v>
+        <v>0.03168617822436359</v>
       </c>
       <c r="M7" t="n">
-        <v>8.676041337622156</v>
+        <v>8.656978198658571</v>
       </c>
       <c r="N7" t="n">
-        <v>124.6737890877525</v>
+        <v>124.2418734397957</v>
       </c>
       <c r="O7" t="n">
-        <v>11.16574176164542</v>
+        <v>11.14638387279909</v>
       </c>
       <c r="P7" t="n">
-        <v>392.6446453066404</v>
+        <v>392.6337925778093</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34947,28 +35067,28 @@
         <v>0.0303</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2682357408842316</v>
+        <v>-0.2683494884231558</v>
       </c>
       <c r="J8" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K8" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03020427090526079</v>
+        <v>0.03044854837846234</v>
       </c>
       <c r="M8" t="n">
-        <v>8.640557370631146</v>
+        <v>8.616870571069981</v>
       </c>
       <c r="N8" t="n">
-        <v>126.3888033680774</v>
+        <v>125.9078429975895</v>
       </c>
       <c r="O8" t="n">
-        <v>11.24227749915814</v>
+        <v>11.22086641029067</v>
       </c>
       <c r="P8" t="n">
-        <v>393.0986147039222</v>
+        <v>393.099778803707</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35025,28 +35145,28 @@
         <v>0.0303</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1262676067507569</v>
+        <v>-0.1262253984938578</v>
       </c>
       <c r="J9" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K9" t="n">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007817369765837356</v>
+        <v>0.00786693943241823</v>
       </c>
       <c r="M9" t="n">
-        <v>8.314502645006103</v>
+        <v>8.300100739307656</v>
       </c>
       <c r="N9" t="n">
-        <v>111.7650104806615</v>
+        <v>111.4055244333661</v>
       </c>
       <c r="O9" t="n">
-        <v>10.57189720346644</v>
+        <v>10.5548815452077</v>
       </c>
       <c r="P9" t="n">
-        <v>392.6660914312426</v>
+        <v>392.6656159839777</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35103,28 +35223,28 @@
         <v>0.0302</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.07405675212115731</v>
+        <v>-0.07706492607118448</v>
       </c>
       <c r="J10" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K10" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00331682836901992</v>
+        <v>0.003616002280292685</v>
       </c>
       <c r="M10" t="n">
-        <v>7.560478678538112</v>
+        <v>7.544873294333454</v>
       </c>
       <c r="N10" t="n">
-        <v>91.39517175723466</v>
+        <v>91.09792595526419</v>
       </c>
       <c r="O10" t="n">
-        <v>9.56008220452286</v>
+        <v>9.54452334877254</v>
       </c>
       <c r="P10" t="n">
-        <v>393.6896489674237</v>
+        <v>393.7205892128133</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35181,28 +35301,28 @@
         <v>0.0347</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02284832570522438</v>
+        <v>0.02365952094901918</v>
       </c>
       <c r="J11" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K11" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002507062834086193</v>
+        <v>0.0002707625200022434</v>
       </c>
       <c r="M11" t="n">
-        <v>8.416012528531775</v>
+        <v>8.400903020131713</v>
       </c>
       <c r="N11" t="n">
-        <v>116.1999035636901</v>
+        <v>115.817025510662</v>
       </c>
       <c r="O11" t="n">
-        <v>10.77960590947972</v>
+        <v>10.76183188451957</v>
       </c>
       <c r="P11" t="n">
-        <v>392.9762328450778</v>
+        <v>392.9678966792167</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35259,28 +35379,28 @@
         <v>0.0349</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1322773935927877</v>
+        <v>-0.1282763828109096</v>
       </c>
       <c r="J12" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K12" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007727697839824188</v>
+        <v>0.007323390538437224</v>
       </c>
       <c r="M12" t="n">
-        <v>8.916814395254866</v>
+        <v>8.90063508637539</v>
       </c>
       <c r="N12" t="n">
-        <v>127.4388325785449</v>
+        <v>127.0408330376188</v>
       </c>
       <c r="O12" t="n">
-        <v>11.28888092675908</v>
+        <v>11.27123919707229</v>
       </c>
       <c r="P12" t="n">
-        <v>392.1837195313381</v>
+        <v>392.1435649223167</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35337,28 +35457,28 @@
         <v>0.0307</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.176502116485687</v>
+        <v>-0.1732869111789699</v>
       </c>
       <c r="J13" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K13" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01563719587945722</v>
+        <v>0.01517864674239111</v>
       </c>
       <c r="M13" t="n">
-        <v>8.436248463881446</v>
+        <v>8.423190530592516</v>
       </c>
       <c r="N13" t="n">
-        <v>110.126066448267</v>
+        <v>109.8553851636661</v>
       </c>
       <c r="O13" t="n">
-        <v>10.49409674284867</v>
+        <v>10.48119197246507</v>
       </c>
       <c r="P13" t="n">
-        <v>391.7525903776861</v>
+        <v>391.7199120585897</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35415,28 +35535,28 @@
         <v>0.0257</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2322309269330872</v>
+        <v>-0.22424557598735</v>
       </c>
       <c r="J14" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K14" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01898214138258492</v>
+        <v>0.01781515848727855</v>
       </c>
       <c r="M14" t="n">
-        <v>9.875153962160224</v>
+        <v>9.873527001215708</v>
       </c>
       <c r="N14" t="n">
-        <v>153.3367175243107</v>
+        <v>153.1548389337549</v>
       </c>
       <c r="O14" t="n">
-        <v>12.38292039562197</v>
+        <v>12.37557428702826</v>
       </c>
       <c r="P14" t="n">
-        <v>396.7174048583219</v>
+        <v>396.6350100478585</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35474,7 +35594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O605"/>
+  <dimension ref="A1:O607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75607,6 +75727,156 @@
         </is>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-36.67998437961977,174.74905758746922</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>-36.680671860229324,174.74940225717683</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>-36.681392525836166,174.7496308766096</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>-36.68209764852016,174.7498676008507</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>-36.682772223478246,174.7502027269019</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>-36.6834412954414,174.75048564718276</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>-36.68411748248115,174.7507742403292</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>-36.68479535047665,174.7510781392341</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>-36.685471869040796,174.75138678948838</t>
+        </is>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>-36.686134189227126,174.75170413474117</t>
+        </is>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>-36.68677465745716,174.75207041969307</t>
+        </is>
+      </c>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>-36.68744509384842,174.75239308259654</t>
+        </is>
+      </c>
+      <c r="N606" t="inlineStr">
+        <is>
+          <t>-36.688054245175394,174.75288498158133</t>
+        </is>
+      </c>
+      <c r="O606" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>-36.6799242754803,174.7491850865787</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>-36.68057201931009,174.74964839051086</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr"/>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>-36.682027655213716,174.7501464874493</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>-36.68274873197995,174.7503214585286</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>-36.683419252372666,174.75057118909942</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>-36.68410083547333,174.75083311778013</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>-36.68476709115922,174.75117808737915</t>
+        </is>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>-36.68546552060981,174.75140924281004</t>
+        </is>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>-36.68610284329989,174.75180181285154</t>
+        </is>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>-36.686756792000075,174.75211806388958</t>
+        </is>
+      </c>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>-36.68740274767716,174.7525017309905</t>
+        </is>
+      </c>
+      <c r="N607" t="inlineStr">
+        <is>
+          <t>-36.68802440895752,174.7529615328231</t>
+        </is>
+      </c>
+      <c r="O607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0151/nzd0151.xlsx
+++ b/data/nzd0151/nzd0151.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O607"/>
+  <dimension ref="A1:O608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28187,6 +28187,57 @@
         </is>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>392.1566666666667</v>
+      </c>
+      <c r="C608" t="n">
+        <v>374.93</v>
+      </c>
+      <c r="D608" t="n">
+        <v>374.2</v>
+      </c>
+      <c r="E608" t="n">
+        <v>367.4133333333333</v>
+      </c>
+      <c r="F608" t="n">
+        <v>375.4133333333333</v>
+      </c>
+      <c r="G608" t="n">
+        <v>379.7333333333333</v>
+      </c>
+      <c r="H608" t="n">
+        <v>376.7133333333333</v>
+      </c>
+      <c r="I608" t="n">
+        <v>383.5133333333333</v>
+      </c>
+      <c r="J608" t="n">
+        <v>385.2833333333333</v>
+      </c>
+      <c r="K608" t="n">
+        <v>372.3933333333333</v>
+      </c>
+      <c r="L608" t="n">
+        <v>361.3433333333333</v>
+      </c>
+      <c r="M608" t="n">
+        <v>362.3333333333333</v>
+      </c>
+      <c r="N608" t="n">
+        <v>368.84</v>
+      </c>
+      <c r="O608" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28198,7 +28249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B622"/>
+  <dimension ref="A1:B623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34426,6 +34477,16 @@
       </c>
       <c r="B622" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>-0.74</v>
       </c>
     </row>
   </sheetData>
@@ -35594,7 +35655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O607"/>
+  <dimension ref="A1:O608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75877,6 +75938,83 @@
         </is>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>-36.680004773420514,174.74901432592284</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>-36.680714625880086,174.74929682836697</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>-36.68139033077979,174.74963725611406</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>-36.682086012802955,174.74991396329182</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>-36.68277860873113,174.75017045419818</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>-36.68344994604784,174.75045207693987</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>-36.68413676630753,174.75070603676963</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>-36.6847988729351,174.75106568090362</t>
+        </is>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>-36.68547598855337,174.75137221946255</t>
+        </is>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>-36.6861926665744,174.75152191061875</t>
+        </is>
+      </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>-36.68688953355168,174.75176406257242</t>
+        </is>
+      </c>
+      <c r="M608" t="inlineStr">
+        <is>
+          <t>-36.6875374673161,174.7521560769147</t>
+        </is>
+      </c>
+      <c r="N608" t="inlineStr">
+        <is>
+          <t>-36.6881638536075,174.7526037559719</t>
+        </is>
+      </c>
+      <c r="O608" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0151/nzd0151.xlsx
+++ b/data/nzd0151/nzd0151.xlsx
@@ -34660,28 +34660,28 @@
         <v>0.0151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.475878471954172</v>
+        <v>-0.4808039324169989</v>
       </c>
       <c r="J2" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K2" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04182011475056346</v>
+        <v>0.04278778825492824</v>
       </c>
       <c r="M2" t="n">
-        <v>13.65701804294343</v>
+        <v>13.65429489440919</v>
       </c>
       <c r="N2" t="n">
-        <v>294.4598990674548</v>
+        <v>294.1180466692957</v>
       </c>
       <c r="O2" t="n">
-        <v>17.15983388810786</v>
+        <v>17.14987016479413</v>
       </c>
       <c r="P2" t="n">
-        <v>416.4881057572783</v>
+        <v>416.5380498570706</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34738,28 +34738,28 @@
         <v>0.0208</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3580173106353274</v>
+        <v>-0.36240247414471</v>
       </c>
       <c r="J3" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K3" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03380136632923925</v>
+        <v>0.03470736869204882</v>
       </c>
       <c r="M3" t="n">
-        <v>11.30289008806644</v>
+        <v>11.30229600680998</v>
       </c>
       <c r="N3" t="n">
-        <v>205.0088751265983</v>
+        <v>204.8300946842023</v>
       </c>
       <c r="O3" t="n">
-        <v>14.31813099278667</v>
+        <v>14.3118864823685</v>
       </c>
       <c r="P3" t="n">
-        <v>395.2477361566459</v>
+        <v>395.2922420485152</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34816,28 +34816,28 @@
         <v>0.0258</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3537383449204768</v>
+        <v>-0.3545709660405251</v>
       </c>
       <c r="J4" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K4" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04554452194212832</v>
+        <v>0.0459294214621957</v>
       </c>
       <c r="M4" t="n">
-        <v>9.497296350648863</v>
+        <v>9.482304546950209</v>
       </c>
       <c r="N4" t="n">
-        <v>145.5136035016755</v>
+        <v>145.2202831353349</v>
       </c>
       <c r="O4" t="n">
-        <v>12.06290195192167</v>
+        <v>12.0507378668418</v>
       </c>
       <c r="P4" t="n">
-        <v>385.5314485332171</v>
+        <v>385.5399789536066</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34894,28 +34894,28 @@
         <v>0.0304</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2432489529401825</v>
+        <v>-0.2446415247083015</v>
       </c>
       <c r="J5" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K5" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0275404660266646</v>
+        <v>0.02794895625456939</v>
       </c>
       <c r="M5" t="n">
-        <v>8.577142311476621</v>
+        <v>8.567382548344364</v>
       </c>
       <c r="N5" t="n">
-        <v>117.0304446561746</v>
+        <v>116.817555861967</v>
       </c>
       <c r="O5" t="n">
-        <v>10.81806103958443</v>
+        <v>10.80821705287079</v>
       </c>
       <c r="P5" t="n">
-        <v>377.4193905354611</v>
+        <v>377.4337041143775</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34972,28 +34972,28 @@
         <v>0.0304</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.256271843748814</v>
+        <v>-0.2584902899776982</v>
       </c>
       <c r="J6" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K6" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02859427424262984</v>
+        <v>0.02917451406639238</v>
       </c>
       <c r="M6" t="n">
-        <v>8.867225278109091</v>
+        <v>8.861839563224329</v>
       </c>
       <c r="N6" t="n">
-        <v>124.8471106685658</v>
+        <v>124.6574679881494</v>
       </c>
       <c r="O6" t="n">
-        <v>11.17350037672017</v>
+        <v>11.16501088168522</v>
       </c>
       <c r="P6" t="n">
-        <v>387.877381307058</v>
+        <v>387.9001927544875</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35050,28 +35050,28 @@
         <v>0.0302</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2722455264364714</v>
+        <v>-0.2744403510596523</v>
       </c>
       <c r="J7" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K7" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03168617822436359</v>
+        <v>0.03228746601163923</v>
       </c>
       <c r="M7" t="n">
-        <v>8.656978198658571</v>
+        <v>8.651588969960025</v>
       </c>
       <c r="N7" t="n">
-        <v>124.2418734397957</v>
+        <v>124.058526549448</v>
       </c>
       <c r="O7" t="n">
-        <v>11.14638387279909</v>
+        <v>11.13815633529392</v>
       </c>
       <c r="P7" t="n">
-        <v>392.6337925778093</v>
+        <v>392.6567011075459</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35128,28 +35128,28 @@
         <v>0.0303</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2683494884231558</v>
+        <v>-0.2718751709597163</v>
       </c>
       <c r="J8" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K8" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03044854837846234</v>
+        <v>0.03130245186917957</v>
       </c>
       <c r="M8" t="n">
-        <v>8.616870571069981</v>
+        <v>8.619473049573351</v>
       </c>
       <c r="N8" t="n">
-        <v>125.9078429975895</v>
+        <v>125.8304613032945</v>
       </c>
       <c r="O8" t="n">
-        <v>11.22086641029067</v>
+        <v>11.21741776449885</v>
       </c>
       <c r="P8" t="n">
-        <v>393.099778803707</v>
+        <v>393.1367037406728</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35206,28 +35206,28 @@
         <v>0.0303</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1262253984938578</v>
+        <v>-0.1284258479355103</v>
       </c>
       <c r="J9" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K9" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00786693943241823</v>
+        <v>0.008168026323677302</v>
       </c>
       <c r="M9" t="n">
-        <v>8.300100739307656</v>
+        <v>8.295275019081398</v>
       </c>
       <c r="N9" t="n">
-        <v>111.4055244333661</v>
+        <v>111.2504120849681</v>
       </c>
       <c r="O9" t="n">
-        <v>10.5548815452077</v>
+        <v>10.54753108954736</v>
       </c>
       <c r="P9" t="n">
-        <v>392.6656159839777</v>
+        <v>392.6883543178438</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35284,28 +35284,28 @@
         <v>0.0302</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.07706492607118448</v>
+        <v>-0.07945857492888207</v>
       </c>
       <c r="J10" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K10" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003616002280292685</v>
+        <v>0.003854660354945527</v>
       </c>
       <c r="M10" t="n">
-        <v>7.544873294333454</v>
+        <v>7.541439526598159</v>
       </c>
       <c r="N10" t="n">
-        <v>91.09792595526419</v>
+        <v>90.99789387392732</v>
       </c>
       <c r="O10" t="n">
-        <v>9.54452334877254</v>
+        <v>9.53928162252941</v>
       </c>
       <c r="P10" t="n">
-        <v>393.7205892128133</v>
+        <v>393.7452735591198</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35362,28 +35362,28 @@
         <v>0.0347</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02365952094901918</v>
+        <v>0.01556986057103849</v>
       </c>
       <c r="J11" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K11" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002707625200022434</v>
+        <v>0.0001168207796433673</v>
       </c>
       <c r="M11" t="n">
-        <v>8.400903020131713</v>
+        <v>8.425388732124672</v>
       </c>
       <c r="N11" t="n">
-        <v>115.817025510662</v>
+        <v>116.4957577295599</v>
       </c>
       <c r="O11" t="n">
-        <v>10.76183188451957</v>
+        <v>10.79332005128912</v>
       </c>
       <c r="P11" t="n">
-        <v>392.9678966792167</v>
+        <v>393.0508174448423</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35440,28 +35440,28 @@
         <v>0.0349</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1282763828109096</v>
+        <v>-0.1389122689158193</v>
       </c>
       <c r="J12" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K12" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007323390538437224</v>
+        <v>0.00850920577716463</v>
       </c>
       <c r="M12" t="n">
-        <v>8.90063508637539</v>
+        <v>8.940235271686538</v>
       </c>
       <c r="N12" t="n">
-        <v>127.0408330376188</v>
+        <v>128.3315783896472</v>
       </c>
       <c r="O12" t="n">
-        <v>11.27123919707229</v>
+        <v>11.32835285421703</v>
       </c>
       <c r="P12" t="n">
-        <v>392.1435649223167</v>
+        <v>392.2505027000005</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35518,28 +35518,28 @@
         <v>0.0307</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1732869111789699</v>
+        <v>-0.1830016146081296</v>
       </c>
       <c r="J13" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K13" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01517864674239111</v>
+        <v>0.01677358050720412</v>
       </c>
       <c r="M13" t="n">
-        <v>8.423190530592516</v>
+        <v>8.458214086713904</v>
       </c>
       <c r="N13" t="n">
-        <v>109.8553851636661</v>
+        <v>110.9136583885931</v>
       </c>
       <c r="O13" t="n">
-        <v>10.48119197246507</v>
+        <v>10.53155536417072</v>
       </c>
       <c r="P13" t="n">
-        <v>391.7199120585897</v>
+        <v>391.8187364004852</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35596,28 +35596,28 @@
         <v>0.0257</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.22424557598735</v>
+        <v>-0.2330870774003184</v>
       </c>
       <c r="J14" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K14" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01781515848727855</v>
+        <v>0.01917358414390269</v>
       </c>
       <c r="M14" t="n">
-        <v>9.873527001215708</v>
+        <v>9.900924415250588</v>
       </c>
       <c r="N14" t="n">
-        <v>153.1548389337549</v>
+        <v>153.8520055285647</v>
       </c>
       <c r="O14" t="n">
-        <v>12.37557428702826</v>
+        <v>12.40370934553711</v>
       </c>
       <c r="P14" t="n">
-        <v>396.6350100478585</v>
+        <v>396.7264103873768</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">

--- a/data/nzd0151/nzd0151.xlsx
+++ b/data/nzd0151/nzd0151.xlsx
@@ -34651,13 +34651,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0149</v>
+        <v>0.0198</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0151</v>
+        <v>0.0203</v>
       </c>
       <c r="I2" t="n">
         <v>-0.480801361465535</v>
@@ -34729,13 +34729,13 @@
         <v>0.08317478372832784</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0199</v>
+        <v>0.0249</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0208</v>
+        <v>0.0257</v>
       </c>
       <c r="I3" t="n">
         <v>-0.36240247414471</v>
@@ -34807,13 +34807,13 @@
         <v>0.1665671090613739</v>
       </c>
       <c r="F4" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0249</v>
+        <v>0.0297</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0258</v>
+        <v>0.0302</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3545709660405252</v>
@@ -34888,10 +34888,10 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0289</v>
+        <v>0.0299</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0304</v>
+        <v>0.0318</v>
       </c>
       <c r="I5" t="n">
         <v>-0.2446341443306288</v>
@@ -34963,13 +34963,13 @@
         <v>0.3331712823373973</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0296</v>
+        <v>0.0345</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0304</v>
+        <v>0.0356</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2584928302745559</v>
@@ -35041,13 +35041,13 @@
         <v>0.4163035717981184</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0297</v>
+        <v>0.0344</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0302</v>
+        <v>0.0358</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2744438821078777</v>
@@ -35119,13 +35119,13 @@
         <v>0.499695897131072</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0299</v>
+        <v>0.0347</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0303</v>
+        <v>0.0354</v>
       </c>
       <c r="I8" t="n">
         <v>-0.2718795821371925</v>
@@ -35197,13 +35197,13 @@
         <v>0.5830882224635496</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0297</v>
+        <v>0.0347</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0303</v>
+        <v>0.0367</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1284296609591217</v>
@@ -35275,13 +35275,13 @@
         <v>0.666480547796287</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0297</v>
+        <v>0.0344</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0302</v>
+        <v>0.0357</v>
       </c>
       <c r="I10" t="n">
         <v>-0.07946332751578886</v>
@@ -35353,13 +35353,13 @@
         <v>0.7498728731285049</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0299</v>
+        <v>0.0396</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0347</v>
+        <v>0.0406</v>
       </c>
       <c r="I11" t="n">
         <v>0.01556982511048411</v>
@@ -35431,13 +35431,13 @@
         <v>0.833215349335098</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0299</v>
+        <v>0.0396</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0349</v>
+        <v>0.0457</v>
       </c>
       <c r="I12" t="n">
         <v>-0.1389177099175867</v>
@@ -35509,13 +35509,13 @@
         <v>0.9166076746674647</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0298</v>
+        <v>0.0385</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0307</v>
+        <v>0.0416</v>
       </c>
       <c r="I13" t="n">
         <v>-0.1830055162267815</v>
@@ -35587,13 +35587,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0249</v>
+        <v>0.0339</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0257</v>
+        <v>0.0363</v>
       </c>
       <c r="I14" t="n">
         <v>-0.2330870774003186</v>
